--- a/2021-02-12_COVID-19-Vaccine-Data-by-County.xlsx
+++ b/2021-02-12_COVID-19-Vaccine-Data-by-County.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12048" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1566,7 +1566,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1587,7 +1589,7 @@
         <v>305</v>
       </c>
       <c r="B2" s="29">
-        <v>44238</v>
+        <v>44239</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1692,7 +1694,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1760,15 +1762,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>3663537</v>
+        <v>3829551</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2703941</v>
+        <v>2794008</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>959596</v>
+        <v>1035543</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1841,13 +1843,13 @@
         <v>6200</v>
       </c>
       <c r="D4" s="37">
-        <v>3151</v>
+        <v>3213</v>
       </c>
       <c r="E4" s="37">
-        <v>2566</v>
+        <v>2591</v>
       </c>
       <c r="F4" s="37">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1876,13 +1878,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="37">
-        <v>2871</v>
+        <v>2939</v>
       </c>
       <c r="E5" s="37">
-        <v>2252</v>
+        <v>2317</v>
       </c>
       <c r="F5" s="37">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1911,13 +1913,13 @@
         <v>15700</v>
       </c>
       <c r="D6" s="37">
-        <v>11380</v>
+        <v>12324</v>
       </c>
       <c r="E6" s="37">
-        <v>7660</v>
+        <v>8460</v>
       </c>
       <c r="F6" s="37">
-        <v>3720</v>
+        <v>3864</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1946,13 +1948,13 @@
         <v>1100</v>
       </c>
       <c r="D7" s="37">
-        <v>2328</v>
+        <v>2554</v>
       </c>
       <c r="E7" s="37">
-        <v>1800</v>
+        <v>1974</v>
       </c>
       <c r="F7" s="37">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1981,13 +1983,13 @@
         <v>700</v>
       </c>
       <c r="D8" s="37">
-        <v>1486</v>
+        <v>1548</v>
       </c>
       <c r="E8" s="37">
-        <v>1072</v>
+        <v>1094</v>
       </c>
       <c r="F8" s="37">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2016,13 +2018,13 @@
         <v>400</v>
       </c>
       <c r="D9" s="37">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="E9" s="37">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F9" s="37">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2051,13 +2053,13 @@
         <v>3600</v>
       </c>
       <c r="D10" s="37">
-        <v>4115</v>
+        <v>4271</v>
       </c>
       <c r="E10" s="37">
-        <v>2951</v>
+        <v>3073</v>
       </c>
       <c r="F10" s="37">
-        <v>1164</v>
+        <v>1198</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2086,13 +2088,13 @@
         <v>2000</v>
       </c>
       <c r="D11" s="37">
-        <v>3941</v>
+        <v>4102</v>
       </c>
       <c r="E11" s="37">
-        <v>3015</v>
+        <v>3143</v>
       </c>
       <c r="F11" s="37">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2121,13 +2123,13 @@
         <v>5475</v>
       </c>
       <c r="D12" s="37">
-        <v>1535</v>
+        <v>2022</v>
       </c>
       <c r="E12" s="37">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="F12" s="37">
-        <v>142</v>
+        <v>617</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2156,13 +2158,13 @@
         <v>500</v>
       </c>
       <c r="D13" s="37">
-        <v>2196</v>
+        <v>2284</v>
       </c>
       <c r="E13" s="37">
-        <v>1760</v>
+        <v>1829</v>
       </c>
       <c r="F13" s="37">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2191,13 +2193,13 @@
         <v>7500</v>
       </c>
       <c r="D14" s="37">
-        <v>4846</v>
+        <v>5059</v>
       </c>
       <c r="E14" s="37">
-        <v>3449</v>
+        <v>3579</v>
       </c>
       <c r="F14" s="37">
-        <v>1397</v>
+        <v>1480</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2226,13 +2228,13 @@
         <v>2950</v>
       </c>
       <c r="D15" s="37">
-        <v>944</v>
+        <v>1198</v>
       </c>
       <c r="E15" s="37">
-        <v>732</v>
+        <v>825</v>
       </c>
       <c r="F15" s="37">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="G15" s="38">
         <v>2793</v>
@@ -2261,13 +2263,13 @@
         <v>16925</v>
       </c>
       <c r="D16" s="37">
-        <v>7565</v>
+        <v>7712</v>
       </c>
       <c r="E16" s="37">
-        <v>5379</v>
+        <v>5481</v>
       </c>
       <c r="F16" s="37">
-        <v>2186</v>
+        <v>2231</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2296,13 +2298,13 @@
         <v>49450</v>
       </c>
       <c r="D17" s="37">
-        <v>32471</v>
+        <v>33436</v>
       </c>
       <c r="E17" s="37">
-        <v>22381</v>
+        <v>22667</v>
       </c>
       <c r="F17" s="37">
-        <v>10090</v>
+        <v>10769</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2331,13 +2333,13 @@
         <v>376100</v>
       </c>
       <c r="D18" s="37">
-        <v>248696</v>
+        <v>260618</v>
       </c>
       <c r="E18" s="37">
-        <v>180209</v>
+        <v>186059</v>
       </c>
       <c r="F18" s="37">
-        <v>68487</v>
+        <v>74559</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2366,13 +2368,13 @@
         <v>900</v>
       </c>
       <c r="D19" s="37">
-        <v>1920</v>
+        <v>1884</v>
       </c>
       <c r="E19" s="37">
-        <v>1516</v>
+        <v>1559</v>
       </c>
       <c r="F19" s="37">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="G19" s="38">
         <v>10092</v>
@@ -2401,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="37">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20" s="37">
         <v>51</v>
       </c>
       <c r="F20" s="37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G20" s="38">
         <v>543</v>
@@ -2436,13 +2438,13 @@
         <v>2900</v>
       </c>
       <c r="D21" s="37">
-        <v>1583</v>
+        <v>1901</v>
       </c>
       <c r="E21" s="37">
-        <v>1178</v>
+        <v>1256</v>
       </c>
       <c r="F21" s="37">
-        <v>405</v>
+        <v>645</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2471,13 +2473,13 @@
         <v>13350</v>
       </c>
       <c r="D22" s="37">
-        <v>6155</v>
+        <v>6262</v>
       </c>
       <c r="E22" s="37">
-        <v>4109</v>
+        <v>4147</v>
       </c>
       <c r="F22" s="37">
-        <v>2046</v>
+        <v>2115</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2506,13 +2508,13 @@
         <v>32000</v>
       </c>
       <c r="D23" s="37">
-        <v>44601</v>
+        <v>46762</v>
       </c>
       <c r="E23" s="37">
-        <v>31832</v>
+        <v>33042</v>
       </c>
       <c r="F23" s="37">
-        <v>12769</v>
+        <v>13720</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2541,13 +2543,13 @@
         <v>29100</v>
       </c>
       <c r="D24" s="37">
-        <v>18722</v>
+        <v>19063</v>
       </c>
       <c r="E24" s="37">
-        <v>15171</v>
+        <v>15277</v>
       </c>
       <c r="F24" s="37">
-        <v>3551</v>
+        <v>3786</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2576,13 +2578,13 @@
         <v>1300</v>
       </c>
       <c r="D25" s="37">
-        <v>2090</v>
+        <v>2149</v>
       </c>
       <c r="E25" s="37">
-        <v>1784</v>
+        <v>1833</v>
       </c>
       <c r="F25" s="37">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2611,13 +2613,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="E26" s="37">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F26" s="37">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G26" s="38">
         <v>1272</v>
@@ -2646,13 +2648,13 @@
         <v>900</v>
       </c>
       <c r="D27" s="37">
-        <v>1032</v>
+        <v>1137</v>
       </c>
       <c r="E27" s="37">
-        <v>892</v>
+        <v>971</v>
       </c>
       <c r="F27" s="37">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2681,13 +2683,13 @@
         <v>2700</v>
       </c>
       <c r="D28" s="37">
-        <v>3068</v>
+        <v>3384</v>
       </c>
       <c r="E28" s="37">
-        <v>2194</v>
+        <v>2477</v>
       </c>
       <c r="F28" s="37">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2716,13 +2718,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="37">
-        <v>1778</v>
+        <v>1879</v>
       </c>
       <c r="E29" s="37">
-        <v>1329</v>
+        <v>1416</v>
       </c>
       <c r="F29" s="37">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2751,13 +2753,13 @@
         <v>6425</v>
       </c>
       <c r="D30" s="37">
-        <v>4140</v>
+        <v>4214</v>
       </c>
       <c r="E30" s="37">
-        <v>3259</v>
+        <v>3281</v>
       </c>
       <c r="F30" s="37">
-        <v>881</v>
+        <v>933</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2786,13 +2788,13 @@
         <v>3300</v>
       </c>
       <c r="D31" s="37">
-        <v>2798</v>
+        <v>2968</v>
       </c>
       <c r="E31" s="37">
-        <v>2066</v>
+        <v>2120</v>
       </c>
       <c r="F31" s="37">
-        <v>732</v>
+        <v>848</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2821,13 +2823,13 @@
         <v>1200</v>
       </c>
       <c r="D32" s="37">
-        <v>1963</v>
+        <v>2214</v>
       </c>
       <c r="E32" s="37">
-        <v>1418</v>
+        <v>1590</v>
       </c>
       <c r="F32" s="37">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2856,13 +2858,13 @@
         <v>1000</v>
       </c>
       <c r="D33" s="37">
-        <v>1466</v>
+        <v>1497</v>
       </c>
       <c r="E33" s="37">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="F33" s="37">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2891,13 +2893,13 @@
         <v>76750</v>
       </c>
       <c r="D34" s="37">
-        <v>66155</v>
+        <v>67480</v>
       </c>
       <c r="E34" s="37">
-        <v>46712</v>
+        <v>47529</v>
       </c>
       <c r="F34" s="37">
-        <v>19443</v>
+        <v>19951</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2926,13 +2928,13 @@
         <v>300</v>
       </c>
       <c r="D35" s="37">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="E35" s="37">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F35" s="37">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2961,13 +2963,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="37">
-        <v>1091</v>
+        <v>1123</v>
       </c>
       <c r="E36" s="37">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F36" s="37">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -2996,13 +2998,13 @@
         <v>500</v>
       </c>
       <c r="D37" s="37">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="E37" s="37">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="F37" s="37">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3031,13 +3033,13 @@
         <v>800</v>
       </c>
       <c r="D38" s="37">
-        <v>1179</v>
+        <v>1246</v>
       </c>
       <c r="E38" s="37">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="F38" s="37">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3066,13 +3068,13 @@
         <v>9200</v>
       </c>
       <c r="D39" s="37">
-        <v>3738</v>
+        <v>3855</v>
       </c>
       <c r="E39" s="37">
-        <v>2638</v>
+        <v>2711</v>
       </c>
       <c r="F39" s="37">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3101,13 +3103,13 @@
         <v>6100</v>
       </c>
       <c r="D40" s="37">
-        <v>4266</v>
+        <v>4554</v>
       </c>
       <c r="E40" s="37">
-        <v>3197</v>
+        <v>3346</v>
       </c>
       <c r="F40" s="37">
-        <v>1069</v>
+        <v>1208</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3136,13 +3138,13 @@
         <v>1500</v>
       </c>
       <c r="D41" s="37">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="E41" s="37">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="F41" s="37">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3171,13 +3173,13 @@
         <v>4300</v>
       </c>
       <c r="D42" s="37">
-        <v>2650</v>
+        <v>2685</v>
       </c>
       <c r="E42" s="37">
-        <v>2163</v>
+        <v>2176</v>
       </c>
       <c r="F42" s="37">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3206,13 +3208,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="E43" s="37">
         <v>516</v>
       </c>
       <c r="F43" s="37">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G43" s="38">
         <v>2188</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E44" s="37">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="F44" s="37">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3276,13 +3278,13 @@
         <v>800</v>
       </c>
       <c r="D45" s="37">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="E45" s="37">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="F45" s="37">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G45" s="38">
         <v>6721</v>
@@ -3311,13 +3313,13 @@
         <v>120750</v>
       </c>
       <c r="D46" s="37">
-        <v>130687</v>
+        <v>136602</v>
       </c>
       <c r="E46" s="37">
-        <v>102124</v>
+        <v>106408</v>
       </c>
       <c r="F46" s="37">
-        <v>28563</v>
+        <v>30194</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3346,13 +3348,13 @@
         <v>500</v>
       </c>
       <c r="D47" s="37">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E47" s="37">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F47" s="37">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G47" s="38">
         <v>2263</v>
@@ -3381,13 +3383,13 @@
         <v>2400</v>
       </c>
       <c r="D48" s="37">
-        <v>2644</v>
+        <v>2735</v>
       </c>
       <c r="E48" s="37">
-        <v>2132</v>
+        <v>2188</v>
       </c>
       <c r="F48" s="37">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3416,13 +3418,13 @@
         <v>17500</v>
       </c>
       <c r="D49" s="37">
-        <v>17804</v>
+        <v>19130</v>
       </c>
       <c r="E49" s="37">
-        <v>13617</v>
+        <v>14751</v>
       </c>
       <c r="F49" s="37">
-        <v>4187</v>
+        <v>4379</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3451,13 +3453,13 @@
         <v>2850</v>
       </c>
       <c r="D50" s="37">
-        <v>1972</v>
+        <v>2031</v>
       </c>
       <c r="E50" s="37">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="F50" s="37">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3486,13 +3488,13 @@
         <v>300</v>
       </c>
       <c r="D51" s="37">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="E51" s="37">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="F51" s="37">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G51" s="38">
         <v>2288</v>
@@ -3521,13 +3523,13 @@
         <v>4100</v>
       </c>
       <c r="D52" s="37">
-        <v>3609</v>
+        <v>3842</v>
       </c>
       <c r="E52" s="37">
-        <v>2490</v>
+        <v>2685</v>
       </c>
       <c r="F52" s="37">
-        <v>1119</v>
+        <v>1157</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3556,13 +3558,13 @@
         <v>7075</v>
       </c>
       <c r="D53" s="37">
-        <v>5309</v>
+        <v>5516</v>
       </c>
       <c r="E53" s="37">
-        <v>4202</v>
+        <v>4297</v>
       </c>
       <c r="F53" s="37">
-        <v>1107</v>
+        <v>1219</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3591,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="37">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E54" s="37">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F54" s="37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" s="38">
         <v>1123</v>
@@ -3626,13 +3628,13 @@
         <v>2150</v>
       </c>
       <c r="D55" s="37">
-        <v>691</v>
+        <v>753</v>
       </c>
       <c r="E55" s="37">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="F55" s="37">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G55" s="38">
         <v>3554</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="37">
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="E56" s="37">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="F56" s="37">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3696,13 +3698,13 @@
         <v>2350</v>
       </c>
       <c r="D57" s="37">
-        <v>1337</v>
+        <v>1367</v>
       </c>
       <c r="E57" s="37">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="F57" s="37">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3731,13 +3733,13 @@
         <v>400</v>
       </c>
       <c r="D58" s="37">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E58" s="37">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F58" s="37">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G58" s="38">
         <v>1746</v>
@@ -3766,13 +3768,13 @@
         <v>4800</v>
       </c>
       <c r="D59" s="37">
-        <v>1537</v>
+        <v>1580</v>
       </c>
       <c r="E59" s="37">
-        <v>1392</v>
+        <v>1437</v>
       </c>
       <c r="F59" s="37">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3801,13 +3803,13 @@
         <v>456375</v>
       </c>
       <c r="D60" s="37">
-        <v>297573</v>
+        <v>308637</v>
       </c>
       <c r="E60" s="37">
-        <v>223999</v>
+        <v>229682</v>
       </c>
       <c r="F60" s="37">
-        <v>73574</v>
+        <v>78955</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3836,13 +3838,13 @@
         <v>700</v>
       </c>
       <c r="D61" s="37">
-        <v>909</v>
+        <v>950</v>
       </c>
       <c r="E61" s="37">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="F61" s="37">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3871,13 +3873,13 @@
         <v>1900</v>
       </c>
       <c r="D62" s="37">
-        <v>2121</v>
+        <v>2238</v>
       </c>
       <c r="E62" s="37">
-        <v>1437</v>
+        <v>1541</v>
       </c>
       <c r="F62" s="37">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3906,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="37">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E63" s="37">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F63" s="37">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G63" s="38">
         <v>4222</v>
@@ -3941,13 +3943,13 @@
         <v>104750</v>
       </c>
       <c r="D64" s="37">
-        <v>64981</v>
+        <v>67328</v>
       </c>
       <c r="E64" s="37">
-        <v>45942</v>
+        <v>47249</v>
       </c>
       <c r="F64" s="37">
-        <v>19039</v>
+        <v>20079</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3976,13 +3978,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="37">
-        <v>1506</v>
+        <v>1655</v>
       </c>
       <c r="E65" s="37">
-        <v>1042</v>
+        <v>1167</v>
       </c>
       <c r="F65" s="37">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -4011,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E66" s="37">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F66" s="37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G66" s="38">
         <v>1858</v>
@@ -4046,13 +4048,13 @@
         <v>5975</v>
       </c>
       <c r="D67" s="37">
-        <v>2738</v>
+        <v>2813</v>
       </c>
       <c r="E67" s="37">
-        <v>2472</v>
+        <v>2494</v>
       </c>
       <c r="F67" s="37">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4081,13 +4083,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="37">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E68" s="37">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F68" s="37">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4116,13 +4118,13 @@
         <v>700</v>
       </c>
       <c r="D69" s="37">
-        <v>1516</v>
+        <v>1737</v>
       </c>
       <c r="E69" s="37">
-        <v>1277</v>
+        <v>1329</v>
       </c>
       <c r="F69" s="37">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4151,13 +4153,13 @@
         <v>1100</v>
       </c>
       <c r="D70" s="37">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="E70" s="37">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="F70" s="37">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G70" s="38">
         <v>14970</v>
@@ -4186,13 +4188,13 @@
         <v>33300</v>
       </c>
       <c r="D71" s="37">
-        <v>18889</v>
+        <v>22468</v>
       </c>
       <c r="E71" s="37">
-        <v>14447</v>
+        <v>17648</v>
       </c>
       <c r="F71" s="37">
-        <v>4442</v>
+        <v>4820</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4221,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E72" s="37">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F72" s="37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G72" s="38">
         <v>1555</v>
@@ -4256,13 +4258,13 @@
         <v>161575</v>
       </c>
       <c r="D73" s="37">
-        <v>141506</v>
+        <v>146514</v>
       </c>
       <c r="E73" s="37">
-        <v>100642</v>
+        <v>103493</v>
       </c>
       <c r="F73" s="37">
-        <v>40864</v>
+        <v>43021</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4291,13 +4293,13 @@
         <v>14300</v>
       </c>
       <c r="D74" s="37">
-        <v>21084</v>
+        <v>22010</v>
       </c>
       <c r="E74" s="37">
-        <v>16176</v>
+        <v>16853</v>
       </c>
       <c r="F74" s="37">
-        <v>4908</v>
+        <v>5157</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4326,13 +4328,13 @@
         <v>2400</v>
       </c>
       <c r="D75" s="37">
-        <v>3526</v>
+        <v>3855</v>
       </c>
       <c r="E75" s="37">
-        <v>2680</v>
+        <v>2965</v>
       </c>
       <c r="F75" s="37">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4361,13 +4363,13 @@
         <v>5575</v>
       </c>
       <c r="D76" s="37">
-        <v>1889</v>
+        <v>1991</v>
       </c>
       <c r="E76" s="37">
-        <v>1637</v>
+        <v>1713</v>
       </c>
       <c r="F76" s="37">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4396,13 +4398,13 @@
         <v>8375</v>
       </c>
       <c r="D77" s="37">
-        <v>4468</v>
+        <v>4503</v>
       </c>
       <c r="E77" s="37">
-        <v>3141</v>
+        <v>3170</v>
       </c>
       <c r="F77" s="37">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4431,13 +4433,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="37">
-        <v>2449</v>
+        <v>2671</v>
       </c>
       <c r="E78" s="37">
-        <v>1982</v>
+        <v>2129</v>
       </c>
       <c r="F78" s="37">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4466,13 +4468,13 @@
         <v>600</v>
       </c>
       <c r="D79" s="37">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="E79" s="37">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F79" s="37">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G79" s="38">
         <v>3088</v>
@@ -4501,13 +4503,13 @@
         <v>600</v>
       </c>
       <c r="D80" s="37">
-        <v>946</v>
+        <v>1022</v>
       </c>
       <c r="E80" s="37">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="F80" s="37">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4536,10 +4538,10 @@
         <v>400</v>
       </c>
       <c r="D81" s="37">
-        <v>430</v>
+        <v>521</v>
       </c>
       <c r="E81" s="37">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="F81" s="37">
         <v>131</v>
@@ -4571,13 +4573,13 @@
         <v>97850</v>
       </c>
       <c r="D82" s="37">
-        <v>112866</v>
+        <v>118222</v>
       </c>
       <c r="E82" s="37">
-        <v>84166</v>
+        <v>87257</v>
       </c>
       <c r="F82" s="37">
-        <v>28700</v>
+        <v>30965</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4606,13 +4608,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="E83" s="37">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="F83" s="37">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4641,13 +4643,13 @@
         <v>1200</v>
       </c>
       <c r="D84" s="37">
-        <v>1165</v>
+        <v>1212</v>
       </c>
       <c r="E84" s="37">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="F84" s="37">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G84" s="38">
         <v>15808</v>
@@ -4676,13 +4678,13 @@
         <v>3475</v>
       </c>
       <c r="D85" s="37">
-        <v>2630</v>
+        <v>2705</v>
       </c>
       <c r="E85" s="37">
-        <v>1941</v>
+        <v>1961</v>
       </c>
       <c r="F85" s="37">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="G85" s="38">
         <v>16121</v>
@@ -4711,13 +4713,13 @@
         <v>1400</v>
       </c>
       <c r="D86" s="37">
-        <v>1426</v>
+        <v>1471</v>
       </c>
       <c r="E86" s="37">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="F86" s="37">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4746,13 +4748,13 @@
         <v>56950</v>
       </c>
       <c r="D87" s="37">
-        <v>55053</v>
+        <v>57482</v>
       </c>
       <c r="E87" s="37">
-        <v>38801</v>
+        <v>40019</v>
       </c>
       <c r="F87" s="37">
-        <v>16252</v>
+        <v>17463</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4781,13 +4783,13 @@
         <v>400</v>
       </c>
       <c r="D88" s="37">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="E88" s="37">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="F88" s="37">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4816,13 +4818,13 @@
         <v>6700</v>
       </c>
       <c r="D89" s="37">
-        <v>4610</v>
+        <v>4752</v>
       </c>
       <c r="E89" s="37">
-        <v>3768</v>
+        <v>3856</v>
       </c>
       <c r="F89" s="37">
-        <v>842</v>
+        <v>896</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4851,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="37">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E90" s="37">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F90" s="37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G90" s="38">
         <v>1099</v>
@@ -4886,13 +4888,13 @@
         <v>200</v>
       </c>
       <c r="D91" s="37">
-        <v>977</v>
+        <v>1172</v>
       </c>
       <c r="E91" s="37">
-        <v>765</v>
+        <v>949</v>
       </c>
       <c r="F91" s="37">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4921,13 +4923,13 @@
         <v>1700</v>
       </c>
       <c r="D92" s="37">
-        <v>2257</v>
+        <v>2324</v>
       </c>
       <c r="E92" s="37">
-        <v>1604</v>
+        <v>1641</v>
       </c>
       <c r="F92" s="37">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4956,13 +4958,13 @@
         <v>1400</v>
       </c>
       <c r="D93" s="37">
-        <v>2553</v>
+        <v>2578</v>
       </c>
       <c r="E93" s="37">
-        <v>1718</v>
+        <v>1729</v>
       </c>
       <c r="F93" s="37">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4991,13 +4993,13 @@
         <v>24100</v>
       </c>
       <c r="D94" s="37">
-        <v>14776</v>
+        <v>15122</v>
       </c>
       <c r="E94" s="37">
-        <v>10226</v>
+        <v>10470</v>
       </c>
       <c r="F94" s="37">
-        <v>4550</v>
+        <v>4652</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5026,13 +5028,13 @@
         <v>23800</v>
       </c>
       <c r="D95" s="37">
-        <v>13205</v>
+        <v>13513</v>
       </c>
       <c r="E95" s="37">
-        <v>10113</v>
+        <v>10252</v>
       </c>
       <c r="F95" s="37">
-        <v>3092</v>
+        <v>3261</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5061,13 +5063,13 @@
         <v>1400</v>
       </c>
       <c r="D96" s="37">
-        <v>2011</v>
+        <v>2090</v>
       </c>
       <c r="E96" s="37">
-        <v>1534</v>
+        <v>1596</v>
       </c>
       <c r="F96" s="37">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5096,13 +5098,13 @@
         <v>16625</v>
       </c>
       <c r="D97" s="37">
-        <v>14661</v>
+        <v>15617</v>
       </c>
       <c r="E97" s="37">
-        <v>11104</v>
+        <v>11828</v>
       </c>
       <c r="F97" s="37">
-        <v>3557</v>
+        <v>3789</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5131,13 +5133,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>3740</v>
+        <v>4109</v>
       </c>
       <c r="E98" s="37">
-        <v>2576</v>
+        <v>2778</v>
       </c>
       <c r="F98" s="37">
-        <v>1164</v>
+        <v>1331</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5166,13 +5168,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="37">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E99" s="37">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F99" s="37">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G99" s="38">
         <v>2406</v>
@@ -5201,13 +5203,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>2319</v>
+        <v>2376</v>
       </c>
       <c r="E100" s="37">
-        <v>1758</v>
+        <v>1810</v>
       </c>
       <c r="F100" s="37">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5236,10 +5238,10 @@
         <v>700</v>
       </c>
       <c r="D101" s="37">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="E101" s="37">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="F101" s="37">
         <v>238</v>
@@ -5271,13 +5273,13 @@
         <v>1000</v>
       </c>
       <c r="D102" s="37">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E102" s="37">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F102" s="37">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G102" s="38">
         <v>3190</v>
@@ -5306,13 +5308,13 @@
         <v>5400</v>
       </c>
       <c r="D103" s="37">
-        <v>6066</v>
+        <v>6301</v>
       </c>
       <c r="E103" s="37">
-        <v>4631</v>
+        <v>4812</v>
       </c>
       <c r="F103" s="37">
-        <v>1435</v>
+        <v>1489</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5341,13 +5343,13 @@
         <v>759025</v>
       </c>
       <c r="D104" s="37">
-        <v>540775</v>
+        <v>565807</v>
       </c>
       <c r="E104" s="37">
-        <v>385575</v>
+        <v>399072</v>
       </c>
       <c r="F104" s="37">
-        <v>155200</v>
+        <v>166735</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5376,13 +5378,13 @@
         <v>4200</v>
       </c>
       <c r="D105" s="37">
-        <v>3983</v>
+        <v>4344</v>
       </c>
       <c r="E105" s="37">
-        <v>2935</v>
+        <v>3200</v>
       </c>
       <c r="F105" s="37">
-        <v>1048</v>
+        <v>1144</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5411,13 +5413,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="E106" s="37">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="F106" s="37">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5446,10 +5448,10 @@
         <v>600</v>
       </c>
       <c r="D107" s="37">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="E107" s="37">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="F107" s="37">
         <v>118</v>
@@ -5481,13 +5483,13 @@
         <v>28550</v>
       </c>
       <c r="D108" s="37">
-        <v>24926</v>
+        <v>25721</v>
       </c>
       <c r="E108" s="37">
-        <v>19210</v>
+        <v>19655</v>
       </c>
       <c r="F108" s="37">
-        <v>5716</v>
+        <v>6066</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5516,13 +5518,13 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E109" s="37">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F109" s="37">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G109" s="38">
         <v>2827</v>
@@ -5551,13 +5553,13 @@
         <v>5000</v>
       </c>
       <c r="D110" s="37">
-        <v>5843</v>
+        <v>6167</v>
       </c>
       <c r="E110" s="37">
-        <v>4470</v>
+        <v>4673</v>
       </c>
       <c r="F110" s="37">
-        <v>1373</v>
+        <v>1494</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5586,13 +5588,13 @@
         <v>160975</v>
       </c>
       <c r="D111" s="37">
-        <v>102432</v>
+        <v>109643</v>
       </c>
       <c r="E111" s="37">
-        <v>75597</v>
+        <v>76999</v>
       </c>
       <c r="F111" s="37">
-        <v>26835</v>
+        <v>32644</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5621,13 +5623,13 @@
         <v>1900</v>
       </c>
       <c r="D112" s="37">
-        <v>3678</v>
+        <v>3900</v>
       </c>
       <c r="E112" s="37">
-        <v>2694</v>
+        <v>2743</v>
       </c>
       <c r="F112" s="37">
-        <v>984</v>
+        <v>1157</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5656,13 +5658,13 @@
         <v>1200</v>
       </c>
       <c r="D113" s="37">
-        <v>3003</v>
+        <v>3120</v>
       </c>
       <c r="E113" s="37">
-        <v>2371</v>
+        <v>2443</v>
       </c>
       <c r="F113" s="37">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5691,13 +5693,13 @@
         <v>4500</v>
       </c>
       <c r="D114" s="37">
-        <v>6430</v>
+        <v>6556</v>
       </c>
       <c r="E114" s="37">
-        <v>5285</v>
+        <v>5359</v>
       </c>
       <c r="F114" s="37">
-        <v>1145</v>
+        <v>1197</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5726,13 +5728,13 @@
         <v>3100</v>
       </c>
       <c r="D115" s="37">
-        <v>2129</v>
+        <v>2163</v>
       </c>
       <c r="E115" s="37">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="F115" s="37">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5761,13 +5763,13 @@
         <v>2000</v>
       </c>
       <c r="D116" s="37">
-        <v>2140</v>
+        <v>2157</v>
       </c>
       <c r="E116" s="37">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="F116" s="37">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="G116" s="38">
         <v>18929</v>
@@ -5796,13 +5798,13 @@
         <v>3100</v>
       </c>
       <c r="D117" s="37">
-        <v>2485</v>
+        <v>2682</v>
       </c>
       <c r="E117" s="37">
-        <v>1676</v>
+        <v>1747</v>
       </c>
       <c r="F117" s="37">
-        <v>809</v>
+        <v>935</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5831,13 +5833,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="E118" s="37">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="F118" s="37">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5866,13 +5868,13 @@
         <v>8150</v>
       </c>
       <c r="D119" s="37">
-        <v>8851</v>
+        <v>8962</v>
       </c>
       <c r="E119" s="37">
-        <v>6144</v>
+        <v>6214</v>
       </c>
       <c r="F119" s="37">
-        <v>2707</v>
+        <v>2748</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5901,13 +5903,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2151</v>
+        <v>2281</v>
       </c>
       <c r="E120" s="37">
-        <v>1562</v>
+        <v>1641</v>
       </c>
       <c r="F120" s="37">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5936,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E121" s="37">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F121" s="37">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5971,13 +5973,13 @@
         <v>1100</v>
       </c>
       <c r="D122" s="37">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="E122" s="37">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="F122" s="37">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -6006,13 +6008,13 @@
         <v>3750</v>
       </c>
       <c r="D123" s="37">
-        <v>2499</v>
+        <v>2536</v>
       </c>
       <c r="E123" s="37">
-        <v>1920</v>
+        <v>1947</v>
       </c>
       <c r="F123" s="37">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6041,13 +6043,13 @@
         <v>7200</v>
       </c>
       <c r="D124" s="37">
-        <v>4224</v>
+        <v>4442</v>
       </c>
       <c r="E124" s="37">
-        <v>3752</v>
+        <v>3945</v>
       </c>
       <c r="F124" s="37">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6076,13 +6078,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>529</v>
+        <v>650</v>
       </c>
       <c r="E125" s="37">
-        <v>482</v>
+        <v>600</v>
       </c>
       <c r="F125" s="37">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G125" s="38">
         <v>2180</v>
@@ -6111,13 +6113,13 @@
         <v>41200</v>
       </c>
       <c r="D126" s="37">
-        <v>18898</v>
+        <v>20246</v>
       </c>
       <c r="E126" s="37">
-        <v>14858</v>
+        <v>16025</v>
       </c>
       <c r="F126" s="37">
-        <v>4040</v>
+        <v>4221</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6146,13 +6148,13 @@
         <v>300</v>
       </c>
       <c r="D127" s="37">
-        <v>1080</v>
+        <v>1104</v>
       </c>
       <c r="E127" s="37">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="F127" s="37">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6181,13 +6183,13 @@
         <v>6675</v>
       </c>
       <c r="D128" s="37">
-        <v>6173</v>
+        <v>6422</v>
       </c>
       <c r="E128" s="37">
-        <v>5218</v>
+        <v>5348</v>
       </c>
       <c r="F128" s="37">
-        <v>955</v>
+        <v>1074</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6216,13 +6218,13 @@
         <v>7400</v>
       </c>
       <c r="D129" s="37">
-        <v>14077</v>
+        <v>14482</v>
       </c>
       <c r="E129" s="37">
-        <v>10055</v>
+        <v>10167</v>
       </c>
       <c r="F129" s="37">
-        <v>4022</v>
+        <v>4315</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6251,13 +6253,13 @@
         <v>500</v>
       </c>
       <c r="D130" s="37">
-        <v>1515</v>
+        <v>1572</v>
       </c>
       <c r="E130" s="37">
-        <v>1168</v>
+        <v>1202</v>
       </c>
       <c r="F130" s="37">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="G130" s="38">
         <v>17011</v>
@@ -6286,13 +6288,13 @@
         <v>2000</v>
       </c>
       <c r="D131" s="37">
-        <v>1660</v>
+        <v>1726</v>
       </c>
       <c r="E131" s="37">
-        <v>1294</v>
+        <v>1337</v>
       </c>
       <c r="F131" s="37">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6321,13 +6323,13 @@
         <v>5550</v>
       </c>
       <c r="D132" s="37">
-        <v>12163</v>
+        <v>12582</v>
       </c>
       <c r="E132" s="37">
-        <v>8493</v>
+        <v>8724</v>
       </c>
       <c r="F132" s="37">
-        <v>3670</v>
+        <v>3858</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6356,13 +6358,13 @@
         <v>2900</v>
       </c>
       <c r="D133" s="37">
-        <v>5496</v>
+        <v>5782</v>
       </c>
       <c r="E133" s="37">
-        <v>3990</v>
+        <v>4181</v>
       </c>
       <c r="F133" s="37">
-        <v>1506</v>
+        <v>1601</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6391,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="D134" s="37">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E134" s="37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F134" s="37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134" s="38">
         <v>321</v>
@@ -6426,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="37">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="E135" s="37">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F135" s="37">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G135" s="38">
         <v>615</v>
@@ -6461,13 +6463,13 @@
         <v>5300</v>
       </c>
       <c r="D136" s="37">
-        <v>5377</v>
+        <v>5738</v>
       </c>
       <c r="E136" s="37">
-        <v>4072</v>
+        <v>4401</v>
       </c>
       <c r="F136" s="37">
-        <v>1305</v>
+        <v>1337</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6496,10 +6498,10 @@
         <v>700</v>
       </c>
       <c r="D137" s="37">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E137" s="37">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F137" s="37">
         <v>81</v>
@@ -6531,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" s="37">
         <v>27</v>
       </c>
       <c r="F138" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G138" s="38">
         <v>205</v>
@@ -6566,13 +6568,13 @@
         <v>200</v>
       </c>
       <c r="D139" s="37">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E139" s="37">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F139" s="37">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G139" s="38">
         <v>3050</v>
@@ -6601,13 +6603,13 @@
         <v>10175</v>
       </c>
       <c r="D140" s="37">
-        <v>7296</v>
+        <v>7629</v>
       </c>
       <c r="E140" s="37">
-        <v>6706</v>
+        <v>6790</v>
       </c>
       <c r="F140" s="37">
-        <v>590</v>
+        <v>839</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6636,13 +6638,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="E141" s="37">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="F141" s="37">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6671,13 +6673,13 @@
         <v>4400</v>
       </c>
       <c r="D142" s="37">
-        <v>1823</v>
+        <v>2351</v>
       </c>
       <c r="E142" s="37">
-        <v>1703</v>
+        <v>1715</v>
       </c>
       <c r="F142" s="37">
-        <v>120</v>
+        <v>636</v>
       </c>
       <c r="G142" s="38">
         <v>6212</v>
@@ -6706,13 +6708,13 @@
         <v>6500</v>
       </c>
       <c r="D143" s="37">
-        <v>5772</v>
+        <v>5808</v>
       </c>
       <c r="E143" s="37">
-        <v>4300</v>
+        <v>4314</v>
       </c>
       <c r="F143" s="37">
-        <v>1472</v>
+        <v>1494</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6741,13 +6743,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>1968</v>
+        <v>2196</v>
       </c>
       <c r="E144" s="37">
-        <v>1550</v>
+        <v>1608</v>
       </c>
       <c r="F144" s="37">
-        <v>418</v>
+        <v>588</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6776,13 +6778,13 @@
         <v>800</v>
       </c>
       <c r="D145" s="37">
-        <v>1584</v>
+        <v>1665</v>
       </c>
       <c r="E145" s="37">
-        <v>1265</v>
+        <v>1324</v>
       </c>
       <c r="F145" s="37">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6811,13 +6813,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>2580</v>
+        <v>2795</v>
       </c>
       <c r="E146" s="37">
-        <v>1630</v>
+        <v>1753</v>
       </c>
       <c r="F146" s="37">
-        <v>950</v>
+        <v>1042</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6846,13 +6848,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1342</v>
+        <v>1394</v>
       </c>
       <c r="E147" s="37">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="F147" s="37">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6881,13 +6883,13 @@
         <v>900</v>
       </c>
       <c r="D148" s="37">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="E148" s="37">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="F148" s="37">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G148" s="38">
         <v>13946</v>
@@ -6916,13 +6918,13 @@
         <v>9175</v>
       </c>
       <c r="D149" s="37">
-        <v>4935</v>
+        <v>5235</v>
       </c>
       <c r="E149" s="37">
-        <v>3532</v>
+        <v>3656</v>
       </c>
       <c r="F149" s="37">
-        <v>1403</v>
+        <v>1579</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6951,13 +6953,13 @@
         <v>1700</v>
       </c>
       <c r="D150" s="37">
-        <v>1631</v>
+        <v>1699</v>
       </c>
       <c r="E150" s="37">
-        <v>1185</v>
+        <v>1226</v>
       </c>
       <c r="F150" s="37">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6986,13 +6988,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="E151" s="37">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="F151" s="37">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G151" s="38">
         <v>2520</v>
@@ -7021,13 +7023,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1328</v>
+        <v>1483</v>
       </c>
       <c r="E152" s="37">
-        <v>1024</v>
+        <v>1149</v>
       </c>
       <c r="F152" s="37">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7056,13 +7058,13 @@
         <v>1200</v>
       </c>
       <c r="D153" s="37">
-        <v>2508</v>
+        <v>2536</v>
       </c>
       <c r="E153" s="37">
-        <v>2093</v>
+        <v>2099</v>
       </c>
       <c r="F153" s="37">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7126,13 +7128,13 @@
         <v>95200</v>
       </c>
       <c r="D155" s="37">
-        <v>66138</v>
+        <v>68298</v>
       </c>
       <c r="E155" s="37">
-        <v>48045</v>
+        <v>48804</v>
       </c>
       <c r="F155" s="37">
-        <v>18093</v>
+        <v>19494</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7161,13 +7163,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>889</v>
+        <v>948</v>
       </c>
       <c r="E156" s="37">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="F156" s="37">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7196,13 +7198,13 @@
         <v>900</v>
       </c>
       <c r="D157" s="37">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="E157" s="37">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="F157" s="37">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G157" s="38">
         <v>11595</v>
@@ -7231,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="E158" s="37">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F158" s="37">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7266,10 +7268,10 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1142</v>
+        <v>1163</v>
       </c>
       <c r="E159" s="37">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="F159" s="37">
         <v>277</v>
@@ -7301,13 +7303,13 @@
         <v>400</v>
       </c>
       <c r="D160" s="37">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="E160" s="37">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="F160" s="37">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G160" s="38">
         <v>3521</v>
@@ -7336,13 +7338,13 @@
         <v>2900</v>
       </c>
       <c r="D161" s="37">
-        <v>2631</v>
+        <v>2744</v>
       </c>
       <c r="E161" s="37">
-        <v>1812</v>
+        <v>1911</v>
       </c>
       <c r="F161" s="37">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7371,13 +7373,13 @@
         <v>9100</v>
       </c>
       <c r="D162" s="37">
-        <v>4836</v>
+        <v>4898</v>
       </c>
       <c r="E162" s="37">
-        <v>3857</v>
+        <v>3893</v>
       </c>
       <c r="F162" s="37">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7406,13 +7408,13 @@
         <v>1200</v>
       </c>
       <c r="D163" s="37">
-        <v>779</v>
+        <v>828</v>
       </c>
       <c r="E163" s="37">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="F163" s="37">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G163" s="38">
         <v>6435</v>
@@ -7441,13 +7443,13 @@
         <v>34950</v>
       </c>
       <c r="D164" s="37">
-        <v>26776</v>
+        <v>28768</v>
       </c>
       <c r="E164" s="37">
-        <v>21379</v>
+        <v>21942</v>
       </c>
       <c r="F164" s="37">
-        <v>5397</v>
+        <v>6826</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7476,13 +7478,13 @@
         <v>100</v>
       </c>
       <c r="D165" s="37">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E165" s="37">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F165" s="37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G165" s="38">
         <v>616</v>
@@ -7511,13 +7513,13 @@
         <v>2600</v>
       </c>
       <c r="D166" s="37">
-        <v>5004</v>
+        <v>5687</v>
       </c>
       <c r="E166" s="37">
-        <v>3635</v>
+        <v>4138</v>
       </c>
       <c r="F166" s="37">
-        <v>1369</v>
+        <v>1549</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7546,13 +7548,13 @@
         <v>200</v>
       </c>
       <c r="D167" s="37">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E167" s="37">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F167" s="37">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G167" s="38">
         <v>1790</v>
@@ -7581,13 +7583,13 @@
         <v>32275</v>
       </c>
       <c r="D168" s="37">
-        <v>21924</v>
+        <v>25016</v>
       </c>
       <c r="E168" s="37">
-        <v>18232</v>
+        <v>21193</v>
       </c>
       <c r="F168" s="37">
-        <v>3692</v>
+        <v>3823</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7616,13 +7618,13 @@
         <v>2700</v>
       </c>
       <c r="D169" s="37">
-        <v>2604</v>
+        <v>2913</v>
       </c>
       <c r="E169" s="37">
-        <v>1786</v>
+        <v>1811</v>
       </c>
       <c r="F169" s="37">
-        <v>818</v>
+        <v>1102</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7651,13 +7653,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E170" s="37">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F170" s="37">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7686,13 +7688,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="E171" s="37">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F171" s="37">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7721,13 +7723,13 @@
         <v>2350</v>
       </c>
       <c r="D172" s="37">
-        <v>2523</v>
+        <v>2642</v>
       </c>
       <c r="E172" s="37">
-        <v>2193</v>
+        <v>2219</v>
       </c>
       <c r="F172" s="37">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7756,13 +7758,13 @@
         <v>74300</v>
       </c>
       <c r="D173" s="37">
-        <v>52494</v>
+        <v>57665</v>
       </c>
       <c r="E173" s="37">
-        <v>37154</v>
+        <v>40783</v>
       </c>
       <c r="F173" s="37">
-        <v>15340</v>
+        <v>16882</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7791,13 +7793,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>3202</v>
+        <v>4476</v>
       </c>
       <c r="E174" s="37">
-        <v>2296</v>
+        <v>3557</v>
       </c>
       <c r="F174" s="37">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7826,13 +7828,13 @@
         <v>500</v>
       </c>
       <c r="D175" s="37">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="E175" s="37">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F175" s="37">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G175" s="38">
         <v>9830</v>
@@ -7861,13 +7863,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="37">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E176" s="37">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F176" s="37">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G176" s="38">
         <v>994</v>
@@ -7896,13 +7898,13 @@
         <v>8700</v>
       </c>
       <c r="D177" s="37">
-        <v>8698</v>
+        <v>9777</v>
       </c>
       <c r="E177" s="37">
-        <v>6073</v>
+        <v>6230</v>
       </c>
       <c r="F177" s="37">
-        <v>2625</v>
+        <v>3547</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7931,13 +7933,13 @@
         <v>7100</v>
       </c>
       <c r="D178" s="37">
-        <v>6300</v>
+        <v>6960</v>
       </c>
       <c r="E178" s="37">
-        <v>5370</v>
+        <v>6005</v>
       </c>
       <c r="F178" s="37">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7966,13 +7968,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1279</v>
+        <v>1312</v>
       </c>
       <c r="E179" s="37">
-        <v>1096</v>
+        <v>1124</v>
       </c>
       <c r="F179" s="37">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G179" s="38">
         <v>11298</v>
@@ -8001,13 +8003,13 @@
         <v>2200</v>
       </c>
       <c r="D180" s="37">
-        <v>2231</v>
+        <v>2338</v>
       </c>
       <c r="E180" s="37">
-        <v>1637</v>
+        <v>1668</v>
       </c>
       <c r="F180" s="37">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8036,13 +8038,13 @@
         <v>74275</v>
       </c>
       <c r="D181" s="37">
-        <v>38174</v>
+        <v>40272</v>
       </c>
       <c r="E181" s="37">
-        <v>25876</v>
+        <v>26991</v>
       </c>
       <c r="F181" s="37">
-        <v>12298</v>
+        <v>13281</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8071,13 +8073,13 @@
         <v>1300</v>
       </c>
       <c r="D182" s="37">
-        <v>1109</v>
+        <v>1171</v>
       </c>
       <c r="E182" s="37">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F182" s="37">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="G182" s="38">
         <v>7106</v>
@@ -8106,13 +8108,13 @@
         <v>300</v>
       </c>
       <c r="D183" s="37">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E183" s="37">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F183" s="37">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G183" s="38">
         <v>1728</v>
@@ -8141,13 +8143,13 @@
         <v>1600</v>
       </c>
       <c r="D184" s="37">
-        <v>4571</v>
+        <v>5197</v>
       </c>
       <c r="E184" s="37">
-        <v>3748</v>
+        <v>4333</v>
       </c>
       <c r="F184" s="37">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8176,13 +8178,13 @@
         <v>1800</v>
       </c>
       <c r="D185" s="37">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="E185" s="37">
-        <v>1463</v>
+        <v>1494</v>
       </c>
       <c r="F185" s="37">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8211,13 +8213,13 @@
         <v>1600</v>
       </c>
       <c r="D186" s="37">
-        <v>1589</v>
+        <v>1683</v>
       </c>
       <c r="E186" s="37">
-        <v>1198</v>
+        <v>1236</v>
       </c>
       <c r="F186" s="37">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8246,13 +8248,13 @@
         <v>15350</v>
       </c>
       <c r="D187" s="37">
-        <v>15393</v>
+        <v>15853</v>
       </c>
       <c r="E187" s="37">
-        <v>11352</v>
+        <v>11620</v>
       </c>
       <c r="F187" s="37">
-        <v>4041</v>
+        <v>4233</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8281,13 +8283,13 @@
         <v>800</v>
       </c>
       <c r="D188" s="37">
-        <v>1683</v>
+        <v>1782</v>
       </c>
       <c r="E188" s="37">
-        <v>1279</v>
+        <v>1310</v>
       </c>
       <c r="F188" s="37">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8316,13 +8318,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>2789</v>
+        <v>2871</v>
       </c>
       <c r="E189" s="37">
-        <v>2284</v>
+        <v>2360</v>
       </c>
       <c r="F189" s="37">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8351,13 +8353,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>4320</v>
+        <v>4827</v>
       </c>
       <c r="E190" s="37">
-        <v>3364</v>
+        <v>3605</v>
       </c>
       <c r="F190" s="37">
-        <v>956</v>
+        <v>1222</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8386,13 +8388,13 @@
         <v>84125</v>
       </c>
       <c r="D191" s="37">
-        <v>25314</v>
+        <v>25798</v>
       </c>
       <c r="E191" s="37">
-        <v>16556</v>
+        <v>16806</v>
       </c>
       <c r="F191" s="37">
-        <v>8758</v>
+        <v>8992</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8421,13 +8423,13 @@
         <v>800</v>
       </c>
       <c r="D192" s="37">
-        <v>1246</v>
+        <v>1308</v>
       </c>
       <c r="E192" s="37">
-        <v>1049</v>
+        <v>1109</v>
       </c>
       <c r="F192" s="37">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G192" s="38">
         <v>5069</v>
@@ -8456,13 +8458,13 @@
         <v>300</v>
       </c>
       <c r="D193" s="37">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E193" s="37">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="F193" s="37">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8491,13 +8493,13 @@
         <v>6100</v>
       </c>
       <c r="D194" s="37">
-        <v>38046</v>
+        <v>38922</v>
       </c>
       <c r="E194" s="37">
-        <v>24417</v>
+        <v>24775</v>
       </c>
       <c r="F194" s="37">
-        <v>13629</v>
+        <v>14147</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8526,13 +8528,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E195" s="37">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F195" s="37">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G195" s="38">
         <v>2841</v>
@@ -8561,13 +8563,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>647</v>
+        <v>755</v>
       </c>
       <c r="E196" s="37">
-        <v>459</v>
+        <v>563</v>
       </c>
       <c r="F196" s="37">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G196" s="38">
         <v>2943</v>
@@ -8596,13 +8598,13 @@
         <v>800</v>
       </c>
       <c r="D197" s="37">
-        <v>1441</v>
+        <v>1480</v>
       </c>
       <c r="E197" s="37">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F197" s="37">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8631,13 +8633,13 @@
         <v>5775</v>
       </c>
       <c r="D198" s="37">
-        <v>3555</v>
+        <v>4117</v>
       </c>
       <c r="E198" s="37">
-        <v>2883</v>
+        <v>2995</v>
       </c>
       <c r="F198" s="37">
-        <v>672</v>
+        <v>1122</v>
       </c>
       <c r="G198" s="38">
         <v>12781</v>
@@ -8666,13 +8668,13 @@
         <v>700</v>
       </c>
       <c r="D199" s="37">
-        <v>1209</v>
+        <v>1329</v>
       </c>
       <c r="E199" s="37">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="F199" s="37">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G199" s="38">
         <v>5583</v>
@@ -8701,13 +8703,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="37">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E200" s="37">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F200" s="37">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G200" s="38">
         <v>672</v>
@@ -8736,13 +8738,13 @@
         <v>1000</v>
       </c>
       <c r="D201" s="37">
-        <v>1468</v>
+        <v>1507</v>
       </c>
       <c r="E201" s="37">
-        <v>1170</v>
+        <v>1194</v>
       </c>
       <c r="F201" s="37">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8771,13 +8773,13 @@
         <v>6775</v>
       </c>
       <c r="D202" s="37">
-        <v>12820</v>
+        <v>13565</v>
       </c>
       <c r="E202" s="37">
-        <v>9520</v>
+        <v>10120</v>
       </c>
       <c r="F202" s="37">
-        <v>3300</v>
+        <v>3445</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8806,13 +8808,13 @@
         <v>1500</v>
       </c>
       <c r="D203" s="37">
-        <v>1619</v>
+        <v>1708</v>
       </c>
       <c r="E203" s="37">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="F203" s="37">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8841,13 +8843,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>2835</v>
+        <v>2941</v>
       </c>
       <c r="E204" s="37">
-        <v>2145</v>
+        <v>2194</v>
       </c>
       <c r="F204" s="37">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8876,13 +8878,13 @@
         <v>1400</v>
       </c>
       <c r="D205" s="37">
-        <v>1436</v>
+        <v>1570</v>
       </c>
       <c r="E205" s="37">
-        <v>1116</v>
+        <v>1154</v>
       </c>
       <c r="F205" s="37">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="G205" s="38">
         <v>8871</v>
@@ -8911,13 +8913,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="E206" s="37">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F206" s="37">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="G206" s="38">
         <v>6811</v>
@@ -8946,13 +8948,13 @@
         <v>1600</v>
       </c>
       <c r="D207" s="37">
-        <v>2035</v>
+        <v>2162</v>
       </c>
       <c r="E207" s="37">
-        <v>1522</v>
+        <v>1580</v>
       </c>
       <c r="F207" s="37">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8981,13 +8983,13 @@
         <v>3200</v>
       </c>
       <c r="D208" s="37">
-        <v>6148</v>
+        <v>6746</v>
       </c>
       <c r="E208" s="37">
-        <v>4784</v>
+        <v>5180</v>
       </c>
       <c r="F208" s="37">
-        <v>1364</v>
+        <v>1566</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9016,13 +9018,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="37">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E209" s="37">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F209" s="37">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G209" s="38">
         <v>5000</v>
@@ -9051,13 +9053,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E210" s="37">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F210" s="37">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G210" s="38">
         <v>2218</v>
@@ -9086,13 +9088,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>1532</v>
+        <v>1635</v>
       </c>
       <c r="E211" s="37">
-        <v>1157</v>
+        <v>1200</v>
       </c>
       <c r="F211" s="37">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9121,10 +9123,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E212" s="37">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F212" s="37">
         <v>52</v>
@@ -9156,13 +9158,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1425</v>
+        <v>1526</v>
       </c>
       <c r="E213" s="37">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="F213" s="37">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9191,13 +9193,13 @@
         <v>500</v>
       </c>
       <c r="D214" s="37">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="E214" s="37">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="F214" s="37">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G214" s="38">
         <v>2294</v>
@@ -9226,13 +9228,13 @@
         <v>63600</v>
       </c>
       <c r="D215" s="37">
-        <v>29425</v>
+        <v>29948</v>
       </c>
       <c r="E215" s="37">
-        <v>21884</v>
+        <v>22295</v>
       </c>
       <c r="F215" s="37">
-        <v>7541</v>
+        <v>7653</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9261,13 +9263,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1134</v>
+        <v>1223</v>
       </c>
       <c r="E216" s="37">
-        <v>892</v>
+        <v>973</v>
       </c>
       <c r="F216" s="37">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9296,13 +9298,13 @@
         <v>6400</v>
       </c>
       <c r="D217" s="37">
-        <v>6653</v>
+        <v>7115</v>
       </c>
       <c r="E217" s="37">
-        <v>4876</v>
+        <v>5251</v>
       </c>
       <c r="F217" s="37">
-        <v>1777</v>
+        <v>1864</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9331,13 +9333,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="E218" s="37">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="F218" s="37">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9366,13 +9368,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="37">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E219" s="37">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F219" s="37">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G219" s="38">
         <v>975</v>
@@ -9401,10 +9403,10 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="E220" s="37">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="F220" s="37">
         <v>47</v>
@@ -9436,13 +9438,13 @@
         <v>400</v>
       </c>
       <c r="D221" s="37">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E221" s="37">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F221" s="37">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G221" s="38">
         <v>2992</v>
@@ -9471,13 +9473,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="E222" s="37">
         <v>904</v>
       </c>
       <c r="F222" s="37">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9506,13 +9508,13 @@
         <v>395350</v>
       </c>
       <c r="D223" s="37">
-        <v>210250</v>
+        <v>220625</v>
       </c>
       <c r="E223" s="37">
-        <v>149322</v>
+        <v>152808</v>
       </c>
       <c r="F223" s="37">
-        <v>60928</v>
+        <v>67817</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9541,13 +9543,13 @@
         <v>22375</v>
       </c>
       <c r="D224" s="37">
-        <v>21763</v>
+        <v>22499</v>
       </c>
       <c r="E224" s="37">
-        <v>16205</v>
+        <v>16830</v>
       </c>
       <c r="F224" s="37">
-        <v>5558</v>
+        <v>5669</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9576,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E225" s="37">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F225" s="37">
         <v>19</v>
@@ -9611,13 +9613,13 @@
         <v>3450</v>
       </c>
       <c r="D226" s="37">
-        <v>2568</v>
+        <v>2588</v>
       </c>
       <c r="E226" s="37">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="F226" s="37">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="G226" s="38">
         <v>9307</v>
@@ -9646,13 +9648,13 @@
         <v>500</v>
       </c>
       <c r="D227" s="37">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E227" s="37">
         <v>359</v>
       </c>
       <c r="F227" s="37">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G227" s="38">
         <v>1247</v>
@@ -9681,13 +9683,13 @@
         <v>4300</v>
       </c>
       <c r="D228" s="37">
-        <v>2111</v>
+        <v>2188</v>
       </c>
       <c r="E228" s="37">
-        <v>1413</v>
+        <v>1450</v>
       </c>
       <c r="F228" s="37">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9716,13 +9718,13 @@
         <v>24000</v>
       </c>
       <c r="D229" s="37">
-        <v>20202</v>
+        <v>21245</v>
       </c>
       <c r="E229" s="37">
-        <v>13732</v>
+        <v>14436</v>
       </c>
       <c r="F229" s="37">
-        <v>6470</v>
+        <v>6809</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9751,13 +9753,13 @@
         <v>217400</v>
       </c>
       <c r="D230" s="37">
-        <v>135718</v>
+        <v>139961</v>
       </c>
       <c r="E230" s="37">
-        <v>98954</v>
+        <v>100680</v>
       </c>
       <c r="F230" s="37">
-        <v>36764</v>
+        <v>39281</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9786,13 +9788,13 @@
         <v>2750</v>
       </c>
       <c r="D231" s="37">
-        <v>1867</v>
+        <v>1913</v>
       </c>
       <c r="E231" s="37">
-        <v>1448</v>
+        <v>1470</v>
       </c>
       <c r="F231" s="37">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="G231" s="38">
         <v>12104</v>
@@ -9821,13 +9823,13 @@
         <v>2800</v>
       </c>
       <c r="D232" s="37">
-        <v>2668</v>
+        <v>2743</v>
       </c>
       <c r="E232" s="37">
-        <v>1903</v>
+        <v>1962</v>
       </c>
       <c r="F232" s="37">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9856,13 +9858,13 @@
         <v>1400</v>
       </c>
       <c r="D233" s="37">
-        <v>2610</v>
+        <v>2684</v>
       </c>
       <c r="E233" s="37">
-        <v>1989</v>
+        <v>2025</v>
       </c>
       <c r="F233" s="37">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9891,13 +9893,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="37">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="E234" s="37">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="F234" s="37">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G234" s="38">
         <v>2730</v>
@@ -9926,13 +9928,13 @@
         <v>7175</v>
       </c>
       <c r="D235" s="37">
-        <v>5157</v>
+        <v>5451</v>
       </c>
       <c r="E235" s="37">
-        <v>3577</v>
+        <v>3808</v>
       </c>
       <c r="F235" s="37">
-        <v>1580</v>
+        <v>1643</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9961,13 +9963,13 @@
         <v>5150</v>
       </c>
       <c r="D236" s="37">
-        <v>5331</v>
+        <v>5438</v>
       </c>
       <c r="E236" s="37">
-        <v>4200</v>
+        <v>4271</v>
       </c>
       <c r="F236" s="37">
-        <v>1131</v>
+        <v>1167</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -9996,13 +9998,13 @@
         <v>2900</v>
       </c>
       <c r="D237" s="37">
-        <v>4627</v>
+        <v>4751</v>
       </c>
       <c r="E237" s="37">
-        <v>3386</v>
+        <v>3481</v>
       </c>
       <c r="F237" s="37">
-        <v>1241</v>
+        <v>1270</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10031,13 +10033,13 @@
         <v>13475</v>
       </c>
       <c r="D238" s="37">
-        <v>12307</v>
+        <v>13688</v>
       </c>
       <c r="E238" s="37">
-        <v>8764</v>
+        <v>10105</v>
       </c>
       <c r="F238" s="37">
-        <v>3543</v>
+        <v>3583</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10066,13 +10068,13 @@
         <v>5600</v>
       </c>
       <c r="D239" s="37">
-        <v>4891</v>
+        <v>5170</v>
       </c>
       <c r="E239" s="37">
-        <v>3607</v>
+        <v>3785</v>
       </c>
       <c r="F239" s="37">
-        <v>1284</v>
+        <v>1385</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10101,13 +10103,13 @@
         <v>3300</v>
       </c>
       <c r="D240" s="37">
-        <v>3247</v>
+        <v>3418</v>
       </c>
       <c r="E240" s="37">
-        <v>2501</v>
+        <v>2593</v>
       </c>
       <c r="F240" s="37">
-        <v>746</v>
+        <v>825</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10136,13 +10138,13 @@
         <v>600</v>
       </c>
       <c r="D241" s="37">
-        <v>1114</v>
+        <v>1273</v>
       </c>
       <c r="E241" s="37">
-        <v>880</v>
+        <v>992</v>
       </c>
       <c r="F241" s="37">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10171,13 +10173,13 @@
         <v>14000</v>
       </c>
       <c r="D242" s="37">
-        <v>4833</v>
+        <v>5155</v>
       </c>
       <c r="E242" s="37">
-        <v>3964</v>
+        <v>4187</v>
       </c>
       <c r="F242" s="37">
-        <v>869</v>
+        <v>968</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10206,13 +10208,13 @@
         <v>46900</v>
       </c>
       <c r="D243" s="37">
-        <v>36645</v>
+        <v>37730</v>
       </c>
       <c r="E243" s="37">
-        <v>27546</v>
+        <v>27999</v>
       </c>
       <c r="F243" s="37">
-        <v>9099</v>
+        <v>9731</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10241,13 +10243,13 @@
         <v>2800</v>
       </c>
       <c r="D244" s="37">
-        <v>3100</v>
+        <v>3289</v>
       </c>
       <c r="E244" s="37">
-        <v>2270</v>
+        <v>2368</v>
       </c>
       <c r="F244" s="37">
-        <v>830</v>
+        <v>921</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10276,13 +10278,13 @@
         <v>900</v>
       </c>
       <c r="D245" s="37">
-        <v>896</v>
+        <v>976</v>
       </c>
       <c r="E245" s="37">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F245" s="37">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10311,13 +10313,13 @@
         <v>28000</v>
       </c>
       <c r="D246" s="37">
-        <v>22423</v>
+        <v>23149</v>
       </c>
       <c r="E246" s="37">
-        <v>15630</v>
+        <v>16105</v>
       </c>
       <c r="F246" s="37">
-        <v>6793</v>
+        <v>7044</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10346,13 +10348,13 @@
         <v>5700</v>
       </c>
       <c r="D247" s="37">
-        <v>3380</v>
+        <v>3493</v>
       </c>
       <c r="E247" s="37">
-        <v>2312</v>
+        <v>2387</v>
       </c>
       <c r="F247" s="37">
-        <v>1068</v>
+        <v>1106</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10381,13 +10383,13 @@
         <v>800</v>
       </c>
       <c r="D248" s="37">
-        <v>2202</v>
+        <v>2249</v>
       </c>
       <c r="E248" s="37">
-        <v>1707</v>
+        <v>1728</v>
       </c>
       <c r="F248" s="37">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10416,13 +10418,13 @@
         <v>65550</v>
       </c>
       <c r="D249" s="37">
-        <v>57570</v>
+        <v>59078</v>
       </c>
       <c r="E249" s="37">
-        <v>42081</v>
+        <v>42782</v>
       </c>
       <c r="F249" s="37">
-        <v>15489</v>
+        <v>16296</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10451,13 +10453,13 @@
         <v>4100</v>
       </c>
       <c r="D250" s="37">
-        <v>5710</v>
+        <v>5875</v>
       </c>
       <c r="E250" s="37">
-        <v>3701</v>
+        <v>3799</v>
       </c>
       <c r="F250" s="37">
-        <v>2009</v>
+        <v>2076</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10486,13 +10488,13 @@
         <v>400</v>
       </c>
       <c r="D251" s="37">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="E251" s="37">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="F251" s="37">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G251" s="38">
         <v>5954</v>
@@ -10521,13 +10523,13 @@
         <v>6850</v>
       </c>
       <c r="D252" s="37">
-        <v>6944</v>
+        <v>7186</v>
       </c>
       <c r="E252" s="37">
-        <v>4218</v>
+        <v>4375</v>
       </c>
       <c r="F252" s="37">
-        <v>2726</v>
+        <v>2811</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10556,13 +10558,13 @@
         <v>2400</v>
       </c>
       <c r="D253" s="37">
-        <v>3793</v>
+        <v>3927</v>
       </c>
       <c r="E253" s="37">
-        <v>2911</v>
+        <v>2997</v>
       </c>
       <c r="F253" s="37">
-        <v>882</v>
+        <v>930</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10591,13 +10593,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1003</v>
+        <v>1069</v>
       </c>
       <c r="E254" s="37">
-        <v>661</v>
+        <v>715</v>
       </c>
       <c r="F254" s="37">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10626,13 +10628,13 @@
         <v>2700</v>
       </c>
       <c r="D255" s="37">
-        <v>1976</v>
+        <v>2143</v>
       </c>
       <c r="E255" s="37">
-        <v>1421</v>
+        <v>1561</v>
       </c>
       <c r="F255" s="37">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="G255" s="38">
         <v>14219</v>
@@ -10661,13 +10663,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="37">
-        <v>1283</v>
+        <v>1499</v>
       </c>
       <c r="E256" s="37">
-        <v>1132</v>
+        <v>1327</v>
       </c>
       <c r="F256" s="37">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10696,13 +10698,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2513</v>
+        <v>2544</v>
       </c>
       <c r="E257" s="37">
-        <v>2247</v>
+        <v>2268</v>
       </c>
       <c r="F257" s="37">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10731,13 +10733,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="37">
-        <v>328369</v>
+        <v>337246</v>
       </c>
       <c r="E258" s="37">
-        <v>265512</v>
+        <v>268993</v>
       </c>
       <c r="F258" s="37">
-        <v>62857</v>
+        <v>68253</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10811,13 +10813,13 @@
         <v>298</v>
       </c>
       <c r="D2" s="32">
-        <v>51935</v>
+        <v>53783</v>
       </c>
       <c r="E2" s="32">
-        <v>33121</v>
+        <v>34238</v>
       </c>
       <c r="F2" s="32">
-        <v>18814</v>
+        <v>19545</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10831,13 +10833,13 @@
         <v>299</v>
       </c>
       <c r="D3" s="32">
-        <v>37244</v>
+        <v>38739</v>
       </c>
       <c r="E3" s="32">
-        <v>24628</v>
+        <v>25519</v>
       </c>
       <c r="F3" s="32">
-        <v>12616</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10851,13 +10853,13 @@
         <v>297</v>
       </c>
       <c r="D4" s="32">
-        <v>120034</v>
+        <v>128709</v>
       </c>
       <c r="E4" s="32">
-        <v>84908</v>
+        <v>89849</v>
       </c>
       <c r="F4" s="32">
-        <v>35126</v>
+        <v>38860</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10871,13 +10873,13 @@
         <v>301</v>
       </c>
       <c r="D5" s="32">
-        <v>208388</v>
+        <v>215938</v>
       </c>
       <c r="E5" s="32">
-        <v>134649</v>
+        <v>139249</v>
       </c>
       <c r="F5" s="32">
-        <v>73739</v>
+        <v>76689</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10891,13 +10893,13 @@
         <v>300</v>
       </c>
       <c r="D6" s="32">
-        <v>71606</v>
+        <v>73689</v>
       </c>
       <c r="E6" s="32">
-        <v>49324</v>
+        <v>50364</v>
       </c>
       <c r="F6" s="32">
-        <v>22282</v>
+        <v>23325</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -10911,13 +10913,13 @@
         <v>286</v>
       </c>
       <c r="D7" s="32">
-        <v>306969</v>
+        <v>310859</v>
       </c>
       <c r="E7" s="32">
-        <v>206963</v>
+        <v>207820</v>
       </c>
       <c r="F7" s="32">
-        <v>100006</v>
+        <v>103039</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10932,13 +10934,13 @@
         <v>298</v>
       </c>
       <c r="D8" s="32">
-        <v>25456</v>
+        <v>26708</v>
       </c>
       <c r="E8" s="32">
-        <v>17652</v>
+        <v>18431</v>
       </c>
       <c r="F8" s="32">
-        <v>7804</v>
+        <v>8277</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10953,13 +10955,13 @@
         <v>299</v>
       </c>
       <c r="D9" s="32">
-        <v>31504</v>
+        <v>32997</v>
       </c>
       <c r="E9" s="32">
-        <v>22323</v>
+        <v>23299</v>
       </c>
       <c r="F9" s="32">
-        <v>9181</v>
+        <v>9698</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10974,13 +10976,13 @@
         <v>297</v>
       </c>
       <c r="D10" s="32">
-        <v>65222</v>
+        <v>71968</v>
       </c>
       <c r="E10" s="32">
-        <v>50629</v>
+        <v>54742</v>
       </c>
       <c r="F10" s="32">
-        <v>14593</v>
+        <v>17226</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10995,13 +10997,13 @@
         <v>301</v>
       </c>
       <c r="D11" s="32">
-        <v>146555</v>
+        <v>154268</v>
       </c>
       <c r="E11" s="32">
-        <v>104128</v>
+        <v>109136</v>
       </c>
       <c r="F11" s="32">
-        <v>42427</v>
+        <v>45132</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -11016,13 +11018,13 @@
         <v>300</v>
       </c>
       <c r="D12" s="32">
-        <v>45275</v>
+        <v>46941</v>
       </c>
       <c r="E12" s="32">
-        <v>32649</v>
+        <v>33589</v>
       </c>
       <c r="F12" s="32">
-        <v>12626</v>
+        <v>13352</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11037,13 +11039,13 @@
         <v>286</v>
       </c>
       <c r="D13" s="32">
-        <v>196828</v>
+        <v>199722</v>
       </c>
       <c r="E13" s="32">
-        <v>141528</v>
+        <v>142161</v>
       </c>
       <c r="F13" s="32">
-        <v>55300</v>
+        <v>57561</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11058,13 +11060,13 @@
         <v>298</v>
       </c>
       <c r="D14" s="32">
-        <v>27221</v>
+        <v>28907</v>
       </c>
       <c r="E14" s="32">
-        <v>21293</v>
+        <v>22282</v>
       </c>
       <c r="F14" s="32">
-        <v>5928</v>
+        <v>6625</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11079,13 +11081,13 @@
         <v>299</v>
       </c>
       <c r="D15" s="32">
-        <v>30003</v>
+        <v>32049</v>
       </c>
       <c r="E15" s="32">
-        <v>25049</v>
+        <v>26453</v>
       </c>
       <c r="F15" s="32">
-        <v>4954</v>
+        <v>5596</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11100,13 +11102,13 @@
         <v>297</v>
       </c>
       <c r="D16" s="32">
-        <v>56870</v>
+        <v>63992</v>
       </c>
       <c r="E16" s="32">
-        <v>47344</v>
+        <v>51764</v>
       </c>
       <c r="F16" s="32">
-        <v>9526</v>
+        <v>12228</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11121,13 +11123,13 @@
         <v>301</v>
       </c>
       <c r="D17" s="32">
-        <v>239409</v>
+        <v>257551</v>
       </c>
       <c r="E17" s="32">
-        <v>192523</v>
+        <v>203975</v>
       </c>
       <c r="F17" s="32">
-        <v>46886</v>
+        <v>53576</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11142,13 +11144,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="32">
-        <v>49598</v>
+        <v>51627</v>
       </c>
       <c r="E18" s="32">
-        <v>38183</v>
+        <v>39316</v>
       </c>
       <c r="F18" s="32">
-        <v>11415</v>
+        <v>12311</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11163,13 +11165,13 @@
         <v>286</v>
       </c>
       <c r="D19" s="32">
-        <v>216859</v>
+        <v>220114</v>
       </c>
       <c r="E19" s="32">
-        <v>170713</v>
+        <v>170743</v>
       </c>
       <c r="F19" s="32">
-        <v>46146</v>
+        <v>49371</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11184,13 +11186,13 @@
         <v>298</v>
       </c>
       <c r="D20" s="32">
-        <v>5793</v>
+        <v>6107</v>
       </c>
       <c r="E20" s="32">
-        <v>4526</v>
+        <v>4698</v>
       </c>
       <c r="F20" s="32">
-        <v>1267</v>
+        <v>1409</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11205,13 +11207,13 @@
         <v>299</v>
       </c>
       <c r="D21" s="32">
-        <v>6328</v>
+        <v>6774</v>
       </c>
       <c r="E21" s="32">
-        <v>5351</v>
+        <v>5624</v>
       </c>
       <c r="F21" s="32">
-        <v>977</v>
+        <v>1150</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11226,13 +11228,13 @@
         <v>297</v>
       </c>
       <c r="D22" s="32">
-        <v>13573</v>
+        <v>15450</v>
       </c>
       <c r="E22" s="32">
-        <v>11360</v>
+        <v>12639</v>
       </c>
       <c r="F22" s="32">
-        <v>2213</v>
+        <v>2811</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11247,13 +11249,13 @@
         <v>301</v>
       </c>
       <c r="D23" s="32">
-        <v>71901</v>
+        <v>77225</v>
       </c>
       <c r="E23" s="32">
-        <v>56558</v>
+        <v>59838</v>
       </c>
       <c r="F23" s="32">
-        <v>15343</v>
+        <v>17387</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11268,13 +11270,13 @@
         <v>300</v>
       </c>
       <c r="D24" s="32">
-        <v>46999</v>
+        <v>48080</v>
       </c>
       <c r="E24" s="32">
-        <v>33590</v>
+        <v>34104</v>
       </c>
       <c r="F24" s="32">
-        <v>13409</v>
+        <v>13976</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11289,13 +11291,13 @@
         <v>286</v>
       </c>
       <c r="D25" s="32">
-        <v>77903</v>
+        <v>79039</v>
       </c>
       <c r="E25" s="32">
-        <v>60484</v>
+        <v>60486</v>
       </c>
       <c r="F25" s="32">
-        <v>17419</v>
+        <v>18553</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11331,13 +11333,13 @@
         <v>299</v>
       </c>
       <c r="D27" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" s="30"/>
     </row>
@@ -11352,13 +11354,13 @@
         <v>297</v>
       </c>
       <c r="D28" s="32">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E28" s="32">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F28" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11373,10 +11375,10 @@
         <v>301</v>
       </c>
       <c r="D29" s="32">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E29" s="32">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F29" s="32">
         <v>18</v>
@@ -11415,13 +11417,13 @@
         <v>286</v>
       </c>
       <c r="D31" s="32">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="E31" s="32">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F31" s="32">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11436,13 +11438,13 @@
         <v>298</v>
       </c>
       <c r="D32" s="32">
-        <v>34753</v>
+        <v>36080</v>
       </c>
       <c r="E32" s="32">
-        <v>22711</v>
+        <v>23535</v>
       </c>
       <c r="F32" s="32">
-        <v>12042</v>
+        <v>12545</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11457,13 +11459,13 @@
         <v>299</v>
       </c>
       <c r="D33" s="32">
-        <v>16649</v>
+        <v>17333</v>
       </c>
       <c r="E33" s="32">
-        <v>11399</v>
+        <v>11820</v>
       </c>
       <c r="F33" s="32">
-        <v>5250</v>
+        <v>5513</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11478,13 +11480,13 @@
         <v>297</v>
       </c>
       <c r="D34" s="32">
-        <v>66127</v>
+        <v>71787</v>
       </c>
       <c r="E34" s="32">
-        <v>48798</v>
+        <v>52129</v>
       </c>
       <c r="F34" s="32">
-        <v>17329</v>
+        <v>19658</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11499,13 +11501,13 @@
         <v>301</v>
       </c>
       <c r="D35" s="32">
-        <v>110747</v>
+        <v>115588</v>
       </c>
       <c r="E35" s="32">
-        <v>74465</v>
+        <v>77577</v>
       </c>
       <c r="F35" s="32">
-        <v>36282</v>
+        <v>38011</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11520,13 +11522,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="32">
-        <v>34948</v>
+        <v>36200</v>
       </c>
       <c r="E36" s="32">
-        <v>24264</v>
+        <v>24964</v>
       </c>
       <c r="F36" s="32">
-        <v>10684</v>
+        <v>11236</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11541,13 +11543,13 @@
         <v>286</v>
       </c>
       <c r="D37" s="32">
-        <v>187324</v>
+        <v>189962</v>
       </c>
       <c r="E37" s="32">
-        <v>128139</v>
+        <v>128977</v>
       </c>
       <c r="F37" s="32">
-        <v>59185</v>
+        <v>60985</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11562,13 +11564,13 @@
         <v>298</v>
       </c>
       <c r="D38" s="32">
-        <v>18739</v>
+        <v>19877</v>
       </c>
       <c r="E38" s="32">
-        <v>13494</v>
+        <v>14170</v>
       </c>
       <c r="F38" s="32">
-        <v>5245</v>
+        <v>5707</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11583,13 +11585,13 @@
         <v>299</v>
       </c>
       <c r="D39" s="32">
-        <v>17720</v>
+        <v>18762</v>
       </c>
       <c r="E39" s="32">
-        <v>13098</v>
+        <v>13810</v>
       </c>
       <c r="F39" s="32">
-        <v>4622</v>
+        <v>4952</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11604,13 +11606,13 @@
         <v>297</v>
       </c>
       <c r="D40" s="32">
-        <v>43147</v>
+        <v>47966</v>
       </c>
       <c r="E40" s="32">
-        <v>34395</v>
+        <v>37375</v>
       </c>
       <c r="F40" s="32">
-        <v>8752</v>
+        <v>10591</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11625,13 +11627,13 @@
         <v>301</v>
       </c>
       <c r="D41" s="32">
-        <v>96867</v>
+        <v>102761</v>
       </c>
       <c r="E41" s="32">
-        <v>71477</v>
+        <v>75304</v>
       </c>
       <c r="F41" s="32">
-        <v>25390</v>
+        <v>27457</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11646,13 +11648,13 @@
         <v>300</v>
       </c>
       <c r="D42" s="32">
-        <v>25271</v>
+        <v>26315</v>
       </c>
       <c r="E42" s="32">
-        <v>18368</v>
+        <v>19004</v>
       </c>
       <c r="F42" s="32">
-        <v>6903</v>
+        <v>7311</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11667,13 +11669,13 @@
         <v>286</v>
       </c>
       <c r="D43" s="32">
-        <v>133023</v>
+        <v>135141</v>
       </c>
       <c r="E43" s="32">
-        <v>97361</v>
+        <v>97909</v>
       </c>
       <c r="F43" s="32">
-        <v>35662</v>
+        <v>37232</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11688,13 +11690,13 @@
         <v>298</v>
       </c>
       <c r="D44" s="32">
-        <v>24148</v>
+        <v>25570</v>
       </c>
       <c r="E44" s="32">
-        <v>18829</v>
+        <v>19610</v>
       </c>
       <c r="F44" s="32">
-        <v>5319</v>
+        <v>5960</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11709,13 +11711,13 @@
         <v>299</v>
       </c>
       <c r="D45" s="32">
-        <v>19208</v>
+        <v>20490</v>
       </c>
       <c r="E45" s="32">
-        <v>16058</v>
+        <v>16938</v>
       </c>
       <c r="F45" s="32">
-        <v>3150</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11729,13 +11731,13 @@
         <v>297</v>
       </c>
       <c r="D46" s="32">
-        <v>43326</v>
+        <v>48784</v>
       </c>
       <c r="E46" s="32">
-        <v>35832</v>
+        <v>39246</v>
       </c>
       <c r="F46" s="32">
-        <v>7494</v>
+        <v>9538</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11750,13 +11752,13 @@
         <v>301</v>
       </c>
       <c r="D47" s="32">
-        <v>205250</v>
+        <v>220680</v>
       </c>
       <c r="E47" s="32">
-        <v>164966</v>
+        <v>174557</v>
       </c>
       <c r="F47" s="32">
-        <v>40284</v>
+        <v>46123</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11771,13 +11773,13 @@
         <v>300</v>
       </c>
       <c r="D48" s="32">
-        <v>35852</v>
+        <v>37491</v>
       </c>
       <c r="E48" s="32">
-        <v>27821</v>
+        <v>28711</v>
       </c>
       <c r="F48" s="32">
-        <v>8031</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11791,13 +11793,13 @@
         <v>286</v>
       </c>
       <c r="D49" s="32">
-        <v>179049</v>
+        <v>181822</v>
       </c>
       <c r="E49" s="32">
-        <v>140477</v>
+        <v>140522</v>
       </c>
       <c r="F49" s="32">
-        <v>38572</v>
+        <v>41300</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11812,13 +11814,13 @@
         <v>298</v>
       </c>
       <c r="D50" s="32">
-        <v>5024</v>
+        <v>5309</v>
       </c>
       <c r="E50" s="32">
-        <v>3846</v>
+        <v>4000</v>
       </c>
       <c r="F50" s="32">
-        <v>1178</v>
+        <v>1309</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11833,13 +11835,13 @@
         <v>299</v>
       </c>
       <c r="D51" s="32">
-        <v>3212</v>
+        <v>3425</v>
       </c>
       <c r="E51" s="32">
-        <v>2638</v>
+        <v>2783</v>
       </c>
       <c r="F51" s="32">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -11853,13 +11855,13 @@
         <v>297</v>
       </c>
       <c r="D52" s="32">
-        <v>8533</v>
+        <v>9633</v>
       </c>
       <c r="E52" s="32">
-        <v>7112</v>
+        <v>7843</v>
       </c>
       <c r="F52" s="32">
-        <v>1421</v>
+        <v>1790</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11874,13 +11876,13 @@
         <v>301</v>
       </c>
       <c r="D53" s="32">
-        <v>57059</v>
+        <v>61227</v>
       </c>
       <c r="E53" s="32">
-        <v>44091</v>
+        <v>46489</v>
       </c>
       <c r="F53" s="32">
-        <v>12968</v>
+        <v>14738</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11895,13 +11897,13 @@
         <v>300</v>
       </c>
       <c r="D54" s="32">
-        <v>19697</v>
+        <v>20264</v>
       </c>
       <c r="E54" s="32">
-        <v>14383</v>
+        <v>14654</v>
       </c>
       <c r="F54" s="32">
-        <v>5314</v>
+        <v>5610</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11916,13 +11918,13 @@
         <v>286</v>
       </c>
       <c r="D55" s="32">
-        <v>50687</v>
+        <v>51483</v>
       </c>
       <c r="E55" s="32">
-        <v>39676</v>
+        <v>39704</v>
       </c>
       <c r="F55" s="32">
-        <v>11011</v>
+        <v>11779</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11937,13 +11939,13 @@
         <v>298</v>
       </c>
       <c r="D56" s="32">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E56" s="32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F56" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O56" s="30"/>
     </row>
@@ -11978,13 +11980,13 @@
         <v>297</v>
       </c>
       <c r="D58" s="32">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E58" s="32">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F58" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O58" s="30"/>
     </row>
@@ -11999,10 +12001,10 @@
         <v>301</v>
       </c>
       <c r="D59" s="32">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E59" s="32">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F59" s="32">
         <v>17</v>
@@ -12020,10 +12022,10 @@
         <v>300</v>
       </c>
       <c r="D60" s="32">
+        <v>32</v>
+      </c>
+      <c r="E60" s="32">
         <v>29</v>
-      </c>
-      <c r="E60" s="32">
-        <v>26</v>
       </c>
       <c r="F60" s="32">
         <v>3</v>
@@ -12041,13 +12043,13 @@
         <v>286</v>
       </c>
       <c r="D61" s="32">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E61" s="32">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F61" s="32">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12062,13 +12064,13 @@
         <v>298</v>
       </c>
       <c r="D62" s="32">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="E62" s="32">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="F62" s="32">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12083,13 +12085,13 @@
         <v>299</v>
       </c>
       <c r="D63" s="32">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="E63" s="32">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F63" s="32">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12103,13 +12105,13 @@
         <v>297</v>
       </c>
       <c r="D64" s="32">
-        <v>1449</v>
+        <v>1469</v>
       </c>
       <c r="E64" s="32">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F64" s="32">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12124,13 +12126,13 @@
         <v>301</v>
       </c>
       <c r="D65" s="32">
-        <v>3012</v>
+        <v>3089</v>
       </c>
       <c r="E65" s="32">
-        <v>2122</v>
+        <v>2157</v>
       </c>
       <c r="F65" s="32">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12145,13 +12147,13 @@
         <v>300</v>
       </c>
       <c r="D66" s="32">
-        <v>2252</v>
+        <v>2339</v>
       </c>
       <c r="E66" s="32">
-        <v>1448</v>
+        <v>1496</v>
       </c>
       <c r="F66" s="32">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12165,13 +12167,13 @@
         <v>286</v>
       </c>
       <c r="D67" s="32">
-        <v>8742</v>
+        <v>9654</v>
       </c>
       <c r="E67" s="32">
-        <v>7626</v>
+        <v>7791</v>
       </c>
       <c r="F67" s="32">
-        <v>1116</v>
+        <v>1863</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12186,13 +12188,13 @@
         <v>298</v>
       </c>
       <c r="D68" s="32">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="E68" s="32">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="F68" s="32">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12207,13 +12209,13 @@
         <v>299</v>
       </c>
       <c r="D69" s="32">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="E69" s="32">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="F69" s="32">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12227,13 +12229,13 @@
         <v>297</v>
       </c>
       <c r="D70" s="32">
-        <v>664</v>
+        <v>702</v>
       </c>
       <c r="E70" s="32">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="F70" s="32">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12248,13 +12250,13 @@
         <v>301</v>
       </c>
       <c r="D71" s="32">
-        <v>2518</v>
+        <v>2610</v>
       </c>
       <c r="E71" s="32">
-        <v>1848</v>
+        <v>1882</v>
       </c>
       <c r="F71" s="32">
-        <v>670</v>
+        <v>728</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12269,13 +12271,13 @@
         <v>300</v>
       </c>
       <c r="D72" s="32">
-        <v>1330</v>
+        <v>1410</v>
       </c>
       <c r="E72" s="32">
-        <v>915</v>
+        <v>968</v>
       </c>
       <c r="F72" s="32">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12289,13 +12291,13 @@
         <v>286</v>
       </c>
       <c r="D73" s="32">
-        <v>8800</v>
+        <v>9951</v>
       </c>
       <c r="E73" s="32">
-        <v>7594</v>
+        <v>7747</v>
       </c>
       <c r="F73" s="32">
-        <v>1206</v>
+        <v>2204</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12310,13 +12312,13 @@
         <v>298</v>
       </c>
       <c r="D74" s="32">
-        <v>2049</v>
+        <v>2087</v>
       </c>
       <c r="E74" s="32">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="F74" s="32">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12331,13 +12333,13 @@
         <v>299</v>
       </c>
       <c r="D75" s="32">
-        <v>1204</v>
+        <v>1268</v>
       </c>
       <c r="E75" s="32">
-        <v>963</v>
+        <v>986</v>
       </c>
       <c r="F75" s="32">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="O75" s="30"/>
     </row>
@@ -12352,13 +12354,13 @@
         <v>297</v>
       </c>
       <c r="D76" s="32">
-        <v>1369</v>
+        <v>1431</v>
       </c>
       <c r="E76" s="32">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="F76" s="32">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12373,13 +12375,13 @@
         <v>301</v>
       </c>
       <c r="D77" s="32">
-        <v>12301</v>
+        <v>12681</v>
       </c>
       <c r="E77" s="32">
-        <v>9245</v>
+        <v>9324</v>
       </c>
       <c r="F77" s="32">
-        <v>3056</v>
+        <v>3357</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12394,13 +12396,13 @@
         <v>300</v>
       </c>
       <c r="D78" s="32">
-        <v>4964</v>
+        <v>5172</v>
       </c>
       <c r="E78" s="32">
-        <v>3638</v>
+        <v>3683</v>
       </c>
       <c r="F78" s="32">
-        <v>1326</v>
+        <v>1489</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12415,13 +12417,13 @@
         <v>286</v>
       </c>
       <c r="D79" s="32">
-        <v>15499</v>
+        <v>18309</v>
       </c>
       <c r="E79" s="32">
-        <v>12211</v>
+        <v>12527</v>
       </c>
       <c r="F79" s="32">
-        <v>3288</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12435,13 +12437,13 @@
         <v>298</v>
       </c>
       <c r="D80" s="32">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E80" s="32">
         <v>250</v>
       </c>
       <c r="F80" s="32">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12455,13 +12457,13 @@
         <v>299</v>
       </c>
       <c r="D81" s="32">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E81" s="32">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F81" s="32">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12475,13 +12477,13 @@
         <v>297</v>
       </c>
       <c r="D82" s="32">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E82" s="32">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F82" s="32">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12495,13 +12497,13 @@
         <v>301</v>
       </c>
       <c r="D83" s="32">
-        <v>2240</v>
+        <v>2324</v>
       </c>
       <c r="E83" s="32">
-        <v>1716</v>
+        <v>1739</v>
       </c>
       <c r="F83" s="32">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12515,13 +12517,13 @@
         <v>300</v>
       </c>
       <c r="D84" s="32">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="E84" s="32">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F84" s="32">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12535,13 +12537,13 @@
         <v>286</v>
       </c>
       <c r="D85" s="32">
-        <v>2575</v>
+        <v>2913</v>
       </c>
       <c r="E85" s="32">
-        <v>1943</v>
+        <v>2095</v>
       </c>
       <c r="F85" s="32">
-        <v>632</v>
+        <v>818</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -12655,13 +12657,13 @@
         <v>286</v>
       </c>
       <c r="D91" s="32">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E91" s="32">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" s="32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -12675,13 +12677,13 @@
         <v>287</v>
       </c>
       <c r="D92" s="32">
-        <v>3663537</v>
+        <v>3829551</v>
       </c>
       <c r="E92" s="32">
-        <v>2703941</v>
+        <v>2794008</v>
       </c>
       <c r="F92" s="32">
-        <v>959596</v>
+        <v>1035543</v>
       </c>
     </row>
   </sheetData>
@@ -12692,7 +12694,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12767,7 +12769,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24803</v>
+        <v>24804</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12778,7 +12780,7 @@
         <v>44184</v>
       </c>
       <c r="C7" s="32">
-        <v>12380</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12811,7 +12813,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17204</v>
+        <v>17205</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12833,7 +12835,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="32">
-        <v>10270</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12855,7 +12857,7 @@
         <v>44191</v>
       </c>
       <c r="C14" s="32">
-        <v>6664</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12866,7 +12868,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="32">
-        <v>5302</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12877,7 +12879,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25467</v>
+        <v>25482</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12888,7 +12890,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32097</v>
+        <v>32111</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12899,7 +12901,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>37933</v>
+        <v>37944</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12910,7 +12912,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21672</v>
+        <v>21679</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12921,7 +12923,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2302</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12932,7 +12934,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>9972</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12943,7 +12945,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6207</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12954,7 +12956,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24013</v>
+        <v>24061</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12965,7 +12967,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>27958</v>
+        <v>27985</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12976,7 +12978,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36122</v>
+        <v>36144</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12987,7 +12989,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40888</v>
+        <v>40930</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12998,7 +13000,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44004</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13009,7 +13011,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18601</v>
+        <v>18604</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13020,7 +13022,7 @@
         <v>44206</v>
       </c>
       <c r="C29" s="32">
-        <v>8461</v>
+        <v>8472</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13031,7 +13033,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28546</v>
+        <v>28574</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13042,7 +13044,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29349</v>
+        <v>29391</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13053,7 +13055,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>27775</v>
+        <v>27897</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13064,7 +13066,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21720</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13075,7 +13077,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23765</v>
+        <v>23784</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13086,7 +13088,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>12893</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13097,7 +13099,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="32">
-        <v>2682</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13108,7 +13110,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12164</v>
+        <v>12173</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13119,7 +13121,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22351</v>
+        <v>22384</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,7 +13132,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>29906</v>
+        <v>30028</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13141,7 +13143,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27487</v>
+        <v>27574</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13152,7 +13154,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33084</v>
+        <v>33182</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13163,7 +13165,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18228</v>
+        <v>18341</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13174,7 +13176,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>7759</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13185,7 +13187,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34275</v>
+        <v>34324</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13196,7 +13198,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41097</v>
+        <v>41143</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13207,7 +13209,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>39874</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13218,7 +13220,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38624</v>
+        <v>38648</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13229,7 +13231,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36213</v>
+        <v>36335</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13240,7 +13242,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>17467</v>
+        <v>17701</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13251,7 +13253,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7572</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,7 +13264,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31076</v>
+        <v>31199</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,7 +13275,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>30056</v>
+        <v>30164</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13284,7 +13286,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>40533</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13297,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>36773</v>
+        <v>39380</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13306,7 +13308,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>42146</v>
+        <v>43371</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13317,7 +13319,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>22913</v>
+        <v>24395</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13328,7 +13330,7 @@
         <v>44234</v>
       </c>
       <c r="C57" s="32">
-        <v>5228</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13339,7 +13341,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>22108</v>
+        <v>22838</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13350,7 +13352,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>12924</v>
+        <v>29624</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13361,18 +13363,18 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>10544</v>
+        <v>18515</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B61" s="35">
-        <v>44179</v>
+        <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>139</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13380,10 +13382,10 @@
         <v>283</v>
       </c>
       <c r="B62" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C62" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13391,10 +13393,10 @@
         <v>283</v>
       </c>
       <c r="B63" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C63" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13402,10 +13404,10 @@
         <v>283</v>
       </c>
       <c r="B64" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C64" s="32">
-        <v>6643</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13413,10 +13415,10 @@
         <v>283</v>
       </c>
       <c r="B65" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C65" s="32">
-        <v>10831</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13424,10 +13426,10 @@
         <v>283</v>
       </c>
       <c r="B66" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C66" s="32">
-        <v>4706</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13435,10 +13437,10 @@
         <v>283</v>
       </c>
       <c r="B67" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C67" s="32">
-        <v>2533</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13446,10 +13448,10 @@
         <v>283</v>
       </c>
       <c r="B68" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C68" s="32">
-        <v>7902</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13457,10 +13459,10 @@
         <v>283</v>
       </c>
       <c r="B69" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C69" s="32">
-        <v>7394</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13468,10 +13470,10 @@
         <v>283</v>
       </c>
       <c r="B70" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C70" s="32">
-        <v>10794</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13479,10 +13481,10 @@
         <v>283</v>
       </c>
       <c r="B71" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C71" s="32">
-        <v>4638</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13490,10 +13492,10 @@
         <v>283</v>
       </c>
       <c r="B72" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C72" s="32">
-        <v>665</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13501,10 +13503,10 @@
         <v>283</v>
       </c>
       <c r="B73" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C73" s="32">
-        <v>3170</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13512,10 +13514,10 @@
         <v>283</v>
       </c>
       <c r="B74" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C74" s="32">
-        <v>2236</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13523,10 +13525,10 @@
         <v>283</v>
       </c>
       <c r="B75" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C75" s="32">
-        <v>12850</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13534,10 +13536,10 @@
         <v>283</v>
       </c>
       <c r="B76" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C76" s="32">
-        <v>16945</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13545,10 +13547,10 @@
         <v>283</v>
       </c>
       <c r="B77" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C77" s="32">
-        <v>20799</v>
+        <v>16953</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13556,10 +13558,10 @@
         <v>283</v>
       </c>
       <c r="B78" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C78" s="32">
-        <v>12619</v>
+        <v>20819</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13567,10 +13569,10 @@
         <v>283</v>
       </c>
       <c r="B79" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C79" s="32">
-        <v>1193</v>
+        <v>12621</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13578,10 +13580,10 @@
         <v>283</v>
       </c>
       <c r="B80" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C80" s="32">
-        <v>5720</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13589,10 +13591,10 @@
         <v>283</v>
       </c>
       <c r="B81" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C81" s="32">
-        <v>3296</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,10 +13602,10 @@
         <v>283</v>
       </c>
       <c r="B82" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C82" s="32">
-        <v>14849</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13611,10 +13613,10 @@
         <v>283</v>
       </c>
       <c r="B83" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C83" s="32">
-        <v>16601</v>
+        <v>14874</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13622,10 +13624,10 @@
         <v>283</v>
       </c>
       <c r="B84" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C84" s="32">
-        <v>20104</v>
+        <v>16611</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13633,10 +13635,10 @@
         <v>283</v>
       </c>
       <c r="B85" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C85" s="32">
-        <v>22902</v>
+        <v>20123</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13644,10 +13646,10 @@
         <v>283</v>
       </c>
       <c r="B86" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C86" s="32">
-        <v>24573</v>
+        <v>22924</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13655,10 +13657,10 @@
         <v>283</v>
       </c>
       <c r="B87" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C87" s="32">
-        <v>10672</v>
+        <v>24581</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13666,10 +13668,10 @@
         <v>283</v>
       </c>
       <c r="B88" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C88" s="32">
-        <v>4447</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13677,10 +13679,10 @@
         <v>283</v>
       </c>
       <c r="B89" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C89" s="32">
-        <v>18155</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13688,10 +13690,10 @@
         <v>283</v>
       </c>
       <c r="B90" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C90" s="32">
-        <v>19929</v>
+        <v>18169</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13699,10 +13701,10 @@
         <v>283</v>
       </c>
       <c r="B91" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C91" s="32">
-        <v>19965</v>
+        <v>19971</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13710,10 +13712,10 @@
         <v>283</v>
       </c>
       <c r="B92" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C92" s="32">
-        <v>17278</v>
+        <v>20056</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13721,10 +13723,10 @@
         <v>283</v>
       </c>
       <c r="B93" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C93" s="32">
-        <v>17524</v>
+        <v>17348</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13732,10 +13734,10 @@
         <v>283</v>
       </c>
       <c r="B94" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C94" s="32">
-        <v>11071</v>
+        <v>17543</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13743,10 +13745,10 @@
         <v>283</v>
       </c>
       <c r="B95" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C95" s="32">
-        <v>1707</v>
+        <v>11124</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13754,10 +13756,10 @@
         <v>283</v>
       </c>
       <c r="B96" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C96" s="32">
-        <v>8653</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13765,10 +13767,10 @@
         <v>283</v>
       </c>
       <c r="B97" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C97" s="32">
-        <v>17224</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13776,10 +13778,10 @@
         <v>283</v>
       </c>
       <c r="B98" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C98" s="32">
-        <v>22602</v>
+        <v>17253</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13787,10 +13789,10 @@
         <v>283</v>
       </c>
       <c r="B99" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C99" s="32">
-        <v>21841</v>
+        <v>22712</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13798,10 +13800,10 @@
         <v>283</v>
       </c>
       <c r="B100" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C100" s="32">
-        <v>23271</v>
+        <v>21887</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13809,10 +13811,10 @@
         <v>283</v>
       </c>
       <c r="B101" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C101" s="32">
-        <v>12873</v>
+        <v>23368</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13820,10 +13822,10 @@
         <v>283</v>
       </c>
       <c r="B102" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C102" s="32">
-        <v>5205</v>
+        <v>12959</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13831,10 +13833,10 @@
         <v>283</v>
       </c>
       <c r="B103" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C103" s="32">
-        <v>23067</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13842,10 +13844,10 @@
         <v>283</v>
       </c>
       <c r="B104" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C104" s="32">
-        <v>30073</v>
+        <v>23103</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13853,10 +13855,10 @@
         <v>283</v>
       </c>
       <c r="B105" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C105" s="32">
-        <v>31022</v>
+        <v>30108</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13864,10 +13866,10 @@
         <v>283</v>
       </c>
       <c r="B106" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C106" s="32">
-        <v>31114</v>
+        <v>31139</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13875,10 +13877,10 @@
         <v>283</v>
       </c>
       <c r="B107" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C107" s="32">
-        <v>28641</v>
+        <v>31147</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13886,10 +13888,10 @@
         <v>283</v>
       </c>
       <c r="B108" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C108" s="32">
-        <v>14030</v>
+        <v>28765</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13897,10 +13899,10 @@
         <v>283</v>
       </c>
       <c r="B109" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C109" s="32">
-        <v>5899</v>
+        <v>14186</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13908,10 +13910,10 @@
         <v>283</v>
       </c>
       <c r="B110" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C110" s="32">
-        <v>23544</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13919,10 +13921,10 @@
         <v>283</v>
       </c>
       <c r="B111" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C111" s="32">
-        <v>26546</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13930,10 +13932,10 @@
         <v>283</v>
       </c>
       <c r="B112" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C112" s="32">
-        <v>33405</v>
+        <v>26712</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13941,10 +13943,10 @@
         <v>283</v>
       </c>
       <c r="B113" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C113" s="32">
-        <v>32557</v>
+        <v>34667</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13952,10 +13954,10 @@
         <v>283</v>
       </c>
       <c r="B114" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C114" s="32">
-        <v>35951</v>
+        <v>34379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13963,10 +13965,10 @@
         <v>283</v>
       </c>
       <c r="B115" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C115" s="32">
-        <v>21528</v>
+        <v>36655</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13974,10 +13976,10 @@
         <v>283</v>
       </c>
       <c r="B116" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C116" s="32">
-        <v>5665</v>
+        <v>22383</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13985,10 +13987,10 @@
         <v>283</v>
       </c>
       <c r="B117" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C117" s="32">
-        <v>20242</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13996,10 +13998,10 @@
         <v>283</v>
       </c>
       <c r="B118" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C118" s="32">
-        <v>12758</v>
+        <v>20859</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14007,32 +14009,32 @@
         <v>283</v>
       </c>
       <c r="B119" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C119" s="32">
-        <v>11130</v>
+        <v>27143</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B120" s="35">
-        <v>44179</v>
+        <v>44237</v>
       </c>
       <c r="C120" s="32">
-        <v>24</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121" s="35">
-        <v>44180</v>
+        <v>44238</v>
       </c>
       <c r="C121" s="32">
-        <v>304</v>
+        <v>9876</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14040,10 +14042,10 @@
         <v>284</v>
       </c>
       <c r="B122" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C122" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14051,10 +14053,10 @@
         <v>284</v>
       </c>
       <c r="B123" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C123" s="32">
-        <v>1430</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14062,10 +14064,10 @@
         <v>284</v>
       </c>
       <c r="B124" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C124" s="32">
-        <v>2028</v>
+        <v>955</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14073,10 +14075,10 @@
         <v>284</v>
       </c>
       <c r="B125" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C125" s="32">
-        <v>1009</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14084,10 +14086,10 @@
         <v>284</v>
       </c>
       <c r="B126" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C126" s="32">
-        <v>498</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14095,10 +14097,10 @@
         <v>284</v>
       </c>
       <c r="B127" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C127" s="32">
-        <v>1511</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14106,10 +14108,10 @@
         <v>284</v>
       </c>
       <c r="B128" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C128" s="32">
-        <v>2104</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14117,10 +14119,10 @@
         <v>284</v>
       </c>
       <c r="B129" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C129" s="32">
-        <v>2925</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,10 +14130,10 @@
         <v>284</v>
       </c>
       <c r="B130" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C130" s="32">
-        <v>1886</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14139,10 +14141,10 @@
         <v>284</v>
       </c>
       <c r="B131" s="35">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C131" s="32">
-        <v>325</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14150,10 +14152,10 @@
         <v>284</v>
       </c>
       <c r="B132" s="35">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C132" s="32">
-        <v>1716</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14161,10 +14163,10 @@
         <v>284</v>
       </c>
       <c r="B133" s="35">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C133" s="32">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14172,10 +14174,10 @@
         <v>284</v>
       </c>
       <c r="B134" s="35">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C134" s="32">
-        <v>6653</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14183,10 +14185,10 @@
         <v>284</v>
       </c>
       <c r="B135" s="35">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C135" s="32">
-        <v>10702</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14194,10 +14196,10 @@
         <v>284</v>
       </c>
       <c r="B136" s="35">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C136" s="32">
-        <v>17407</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14205,10 +14207,10 @@
         <v>284</v>
       </c>
       <c r="B137" s="35">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C137" s="32">
-        <v>10879</v>
+        <v>10738</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14216,10 +14218,10 @@
         <v>284</v>
       </c>
       <c r="B138" s="35">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C138" s="32">
-        <v>1326</v>
+        <v>17468</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14227,10 +14229,10 @@
         <v>284</v>
       </c>
       <c r="B139" s="35">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C139" s="32">
-        <v>6248</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14238,10 +14240,10 @@
         <v>284</v>
       </c>
       <c r="B140" s="35">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C140" s="32">
-        <v>3502</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14249,10 +14251,10 @@
         <v>284</v>
       </c>
       <c r="B141" s="35">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C141" s="32">
-        <v>16266</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14260,10 +14262,10 @@
         <v>284</v>
       </c>
       <c r="B142" s="35">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C142" s="32">
-        <v>18378</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14271,10 +14273,10 @@
         <v>284</v>
       </c>
       <c r="B143" s="35">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C143" s="32">
-        <v>20346</v>
+        <v>16294</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14282,10 +14284,10 @@
         <v>284</v>
       </c>
       <c r="B144" s="35">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C144" s="32">
-        <v>24446</v>
+        <v>18386</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14293,10 +14295,10 @@
         <v>284</v>
       </c>
       <c r="B145" s="35">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C145" s="32">
-        <v>24696</v>
+        <v>20357</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14304,10 +14306,10 @@
         <v>284</v>
       </c>
       <c r="B146" s="35">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C146" s="32">
-        <v>14030</v>
+        <v>24466</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14315,10 +14317,10 @@
         <v>284</v>
       </c>
       <c r="B147" s="35">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C147" s="32">
-        <v>4415</v>
+        <v>24718</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14326,10 +14328,10 @@
         <v>284</v>
       </c>
       <c r="B148" s="35">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C148" s="32">
-        <v>23761</v>
+        <v>14043</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14337,10 +14339,10 @@
         <v>284</v>
       </c>
       <c r="B149" s="35">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C149" s="32">
-        <v>28856</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14348,10 +14350,10 @@
         <v>284</v>
       </c>
       <c r="B150" s="35">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C150" s="32">
-        <v>29784</v>
+        <v>23774</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14359,10 +14361,10 @@
         <v>284</v>
       </c>
       <c r="B151" s="35">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C151" s="32">
-        <v>34180</v>
+        <v>28921</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14370,10 +14372,10 @@
         <v>284</v>
       </c>
       <c r="B152" s="35">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C152" s="32">
-        <v>30487</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14381,10 +14383,10 @@
         <v>284</v>
       </c>
       <c r="B153" s="35">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C153" s="32">
-        <v>25374</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14392,10 +14394,10 @@
         <v>284</v>
       </c>
       <c r="B154" s="35">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C154" s="32">
-        <v>6704</v>
+        <v>30519</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14403,10 +14405,10 @@
         <v>284</v>
       </c>
       <c r="B155" s="35">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C155" s="32">
-        <v>12122</v>
+        <v>25463</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14414,10 +14416,10 @@
         <v>284</v>
       </c>
       <c r="B156" s="35">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C156" s="32">
-        <v>22869</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14425,10 +14427,10 @@
         <v>284</v>
       </c>
       <c r="B157" s="35">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C157" s="32">
-        <v>31666</v>
+        <v>12136</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14436,10 +14438,10 @@
         <v>284</v>
       </c>
       <c r="B158" s="35">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C158" s="32">
-        <v>33628</v>
+        <v>22892</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14447,10 +14449,10 @@
         <v>284</v>
       </c>
       <c r="B159" s="35">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C159" s="32">
-        <v>30067</v>
+        <v>31813</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14458,10 +14460,10 @@
         <v>284</v>
       </c>
       <c r="B160" s="35">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C160" s="32">
-        <v>21555</v>
+        <v>33687</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14469,10 +14471,10 @@
         <v>284</v>
       </c>
       <c r="B161" s="35">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C161" s="32">
-        <v>8982</v>
+        <v>30199</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14480,10 +14482,10 @@
         <v>284</v>
       </c>
       <c r="B162" s="35">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C162" s="32">
-        <v>26732</v>
+        <v>21685</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14491,10 +14493,10 @@
         <v>284</v>
       </c>
       <c r="B163" s="35">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C163" s="32">
-        <v>37811</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14502,10 +14504,10 @@
         <v>284</v>
       </c>
       <c r="B164" s="35">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C164" s="32">
-        <v>44028</v>
+        <v>26783</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14513,10 +14515,10 @@
         <v>284</v>
       </c>
       <c r="B165" s="35">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C165" s="32">
-        <v>48769</v>
+        <v>37881</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14524,10 +14526,10 @@
         <v>284</v>
       </c>
       <c r="B166" s="35">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C166" s="32">
-        <v>44335</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14535,10 +14537,10 @@
         <v>284</v>
       </c>
       <c r="B167" s="35">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C167" s="32">
-        <v>22462</v>
+        <v>48792</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14546,10 +14548,10 @@
         <v>284</v>
       </c>
       <c r="B168" s="35">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C168" s="32">
-        <v>7142</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14557,10 +14559,10 @@
         <v>284</v>
       </c>
       <c r="B169" s="35">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C169" s="32">
-        <v>34614</v>
+        <v>22555</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14568,10 +14570,10 @@
         <v>284</v>
       </c>
       <c r="B170" s="35">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C170" s="32">
-        <v>42974</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14579,10 +14581,10 @@
         <v>284</v>
       </c>
       <c r="B171" s="35">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C171" s="32">
-        <v>56277</v>
+        <v>34686</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14590,10 +14592,10 @@
         <v>284</v>
       </c>
       <c r="B172" s="35">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C172" s="32">
-        <v>61645</v>
+        <v>43339</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14601,10 +14603,10 @@
         <v>284</v>
       </c>
       <c r="B173" s="35">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C173" s="32">
-        <v>64555</v>
+        <v>57433</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14612,10 +14614,10 @@
         <v>284</v>
       </c>
       <c r="B174" s="35">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C174" s="32">
-        <v>44503</v>
+        <v>66225</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14623,10 +14625,10 @@
         <v>284</v>
       </c>
       <c r="B175" s="35">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C175" s="32">
-        <v>15104</v>
+        <v>65439</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,10 +14636,10 @@
         <v>284</v>
       </c>
       <c r="B176" s="35">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C176" s="32">
-        <v>35447</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14645,10 +14647,10 @@
         <v>284</v>
       </c>
       <c r="B177" s="35">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C177" s="32">
-        <v>20614</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14656,43 +14658,43 @@
         <v>284</v>
       </c>
       <c r="B178" s="35">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C178" s="32">
-        <v>20003</v>
+        <v>36352</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B179" s="35">
-        <v>44179</v>
+        <v>44236</v>
       </c>
       <c r="C179" s="32">
-        <v>1</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B180" s="35">
-        <v>44180</v>
+        <v>44237</v>
       </c>
       <c r="C180" s="32">
-        <v>7</v>
+        <v>32823</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B181" s="35">
-        <v>44181</v>
+        <v>44238</v>
       </c>
       <c r="C181" s="32">
-        <v>34</v>
+        <v>16693</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14700,10 +14702,10 @@
         <v>285</v>
       </c>
       <c r="B182" s="35">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C182" s="32">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14711,10 +14713,10 @@
         <v>285</v>
       </c>
       <c r="B183" s="35">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C183" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14722,10 +14724,10 @@
         <v>285</v>
       </c>
       <c r="B184" s="35">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C184" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14733,10 +14735,10 @@
         <v>285</v>
       </c>
       <c r="B185" s="35">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C185" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14744,10 +14746,10 @@
         <v>285</v>
       </c>
       <c r="B186" s="35">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C186" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14755,10 +14757,10 @@
         <v>285</v>
       </c>
       <c r="B187" s="35">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C187" s="32">
-        <v>162</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14766,10 +14768,10 @@
         <v>285</v>
       </c>
       <c r="B188" s="35">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C188" s="32">
-        <v>583</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14777,10 +14779,10 @@
         <v>285</v>
       </c>
       <c r="B189" s="35">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C189" s="32">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14788,10 +14790,10 @@
         <v>285</v>
       </c>
       <c r="B190" s="35">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C190" s="32">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14799,10 +14801,10 @@
         <v>285</v>
       </c>
       <c r="B191" s="35">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C191" s="32">
-        <v>507</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14810,10 +14812,10 @@
         <v>285</v>
       </c>
       <c r="B192" s="35">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C192" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14821,10 +14823,10 @@
         <v>285</v>
       </c>
       <c r="B193" s="35">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C193" s="32">
-        <v>2717</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14832,10 +14834,10 @@
         <v>285</v>
       </c>
       <c r="B194" s="35">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C194" s="32">
-        <v>5559</v>
+        <v>509</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14843,10 +14845,10 @@
         <v>285</v>
       </c>
       <c r="B195" s="35">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C195" s="32">
-        <v>7191</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14854,10 +14856,10 @@
         <v>285</v>
       </c>
       <c r="B196" s="35">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C196" s="32">
-        <v>3216</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14865,10 +14867,10 @@
         <v>285</v>
       </c>
       <c r="B197" s="35">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C197" s="32">
-        <v>414</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14876,10 +14878,10 @@
         <v>285</v>
       </c>
       <c r="B198" s="35">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C198" s="32">
-        <v>2054</v>
+        <v>7196</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14887,10 +14889,10 @@
         <v>285</v>
       </c>
       <c r="B199" s="35">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C199" s="32">
-        <v>1241</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14898,10 +14900,10 @@
         <v>285</v>
       </c>
       <c r="B200" s="35">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C200" s="32">
-        <v>6658</v>
+        <v>417</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14909,10 +14911,10 @@
         <v>285</v>
       </c>
       <c r="B201" s="35">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C201" s="32">
-        <v>5851</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14920,10 +14922,10 @@
         <v>285</v>
       </c>
       <c r="B202" s="35">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C202" s="32">
-        <v>7566</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14931,10 +14933,10 @@
         <v>285</v>
       </c>
       <c r="B203" s="35">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C203" s="32">
-        <v>9428</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14942,10 +14944,10 @@
         <v>285</v>
       </c>
       <c r="B204" s="35">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C204" s="32">
-        <v>8637</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14953,10 +14955,10 @@
         <v>285</v>
       </c>
       <c r="B205" s="35">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C205" s="32">
-        <v>4755</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14964,10 +14966,10 @@
         <v>285</v>
       </c>
       <c r="B206" s="35">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C206" s="32">
-        <v>1384</v>
+        <v>9436</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14975,10 +14977,10 @@
         <v>285</v>
       </c>
       <c r="B207" s="35">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C207" s="32">
-        <v>8418</v>
+        <v>8651</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14986,10 +14988,10 @@
         <v>285</v>
       </c>
       <c r="B208" s="35">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C208" s="32">
-        <v>9238</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14997,10 +14999,10 @@
         <v>285</v>
       </c>
       <c r="B209" s="35">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C209" s="32">
-        <v>11539</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,10 +15010,10 @@
         <v>285</v>
       </c>
       <c r="B210" s="35">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C210" s="32">
-        <v>11996</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15019,10 +15021,10 @@
         <v>285</v>
       </c>
       <c r="B211" s="35">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C211" s="32">
-        <v>8968</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15030,10 +15032,10 @@
         <v>285</v>
       </c>
       <c r="B212" s="35">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C212" s="32">
-        <v>5462</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15041,10 +15043,10 @@
         <v>285</v>
       </c>
       <c r="B213" s="35">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C213" s="32">
-        <v>1702</v>
+        <v>12113</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15052,10 +15054,10 @@
         <v>285</v>
       </c>
       <c r="B214" s="35">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C214" s="32">
-        <v>5148</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15063,10 +15065,10 @@
         <v>285</v>
       </c>
       <c r="B215" s="35">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C215" s="32">
-        <v>8787</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15074,10 +15076,10 @@
         <v>285</v>
       </c>
       <c r="B216" s="35">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C216" s="32">
-        <v>10968</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,10 +15087,10 @@
         <v>285</v>
       </c>
       <c r="B217" s="35">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C217" s="32">
-        <v>10635</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,10 +15098,10 @@
         <v>285</v>
       </c>
       <c r="B218" s="35">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C218" s="32">
-        <v>8487</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15107,10 +15109,10 @@
         <v>285</v>
       </c>
       <c r="B219" s="35">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C219" s="32">
-        <v>6030</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15118,10 +15120,10 @@
         <v>285</v>
       </c>
       <c r="B220" s="35">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C220" s="32">
-        <v>2020</v>
+        <v>10649</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15129,10 +15131,10 @@
         <v>285</v>
       </c>
       <c r="B221" s="35">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C221" s="32">
-        <v>8949</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15140,10 +15142,10 @@
         <v>285</v>
       </c>
       <c r="B222" s="35">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C222" s="32">
-        <v>13148</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15151,10 +15153,10 @@
         <v>285</v>
       </c>
       <c r="B223" s="35">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C223" s="32">
-        <v>15124</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15162,10 +15164,10 @@
         <v>285</v>
       </c>
       <c r="B224" s="35">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C224" s="32">
-        <v>15861</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15173,10 +15175,10 @@
         <v>285</v>
       </c>
       <c r="B225" s="35">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C225" s="32">
-        <v>13495</v>
+        <v>13179</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15184,10 +15186,10 @@
         <v>285</v>
       </c>
       <c r="B226" s="35">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C226" s="32">
-        <v>6928</v>
+        <v>15163</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15195,10 +15197,10 @@
         <v>285</v>
       </c>
       <c r="B227" s="35">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C227" s="32">
-        <v>3367</v>
+        <v>15870</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15206,10 +15208,10 @@
         <v>285</v>
       </c>
       <c r="B228" s="35">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C228" s="32">
-        <v>12319</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15217,10 +15219,10 @@
         <v>285</v>
       </c>
       <c r="B229" s="35">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C229" s="32">
-        <v>15367</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15228,10 +15230,10 @@
         <v>285</v>
       </c>
       <c r="B230" s="35">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C230" s="32">
-        <v>16698</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15239,10 +15241,10 @@
         <v>285</v>
       </c>
       <c r="B231" s="35">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C231" s="32">
-        <v>17439</v>
+        <v>12327</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15250,10 +15252,10 @@
         <v>285</v>
       </c>
       <c r="B232" s="35">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C232" s="32">
-        <v>18985</v>
+        <v>15462</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15261,10 +15263,10 @@
         <v>285</v>
       </c>
       <c r="B233" s="35">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C233" s="32">
-        <v>11301</v>
+        <v>17117</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15272,10 +15274,10 @@
         <v>285</v>
       </c>
       <c r="B234" s="35">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C234" s="32">
-        <v>2951</v>
+        <v>18606</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15283,10 +15285,10 @@
         <v>285</v>
       </c>
       <c r="B235" s="35">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C235" s="32">
-        <v>10957</v>
+        <v>19257</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15294,10 +15296,10 @@
         <v>285</v>
       </c>
       <c r="B236" s="35">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C236" s="32">
-        <v>6070</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15305,54 +15307,54 @@
         <v>285</v>
       </c>
       <c r="B237" s="35">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C237" s="32">
-        <v>5666</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B238" s="35">
-        <v>44180</v>
+        <v>44235</v>
       </c>
       <c r="C238" s="32">
-        <v>2</v>
+        <v>11189</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B239" s="35">
-        <v>44181</v>
+        <v>44236</v>
       </c>
       <c r="C239" s="32">
-        <v>6</v>
+        <v>12742</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B240" s="35">
-        <v>44182</v>
+        <v>44237</v>
       </c>
       <c r="C240" s="32">
-        <v>13</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B241" s="35">
-        <v>44183</v>
+        <v>44238</v>
       </c>
       <c r="C241" s="32">
-        <v>40</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15360,10 +15362,10 @@
         <v>286</v>
       </c>
       <c r="B242" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C242" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15371,10 +15373,10 @@
         <v>286</v>
       </c>
       <c r="B243" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C243" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15382,10 +15384,10 @@
         <v>286</v>
       </c>
       <c r="B244" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C244" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15393,10 +15395,10 @@
         <v>286</v>
       </c>
       <c r="B245" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C245" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15404,10 +15406,10 @@
         <v>286</v>
       </c>
       <c r="B246" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C246" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15415,10 +15417,10 @@
         <v>286</v>
       </c>
       <c r="B247" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C247" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15426,10 +15428,10 @@
         <v>286</v>
       </c>
       <c r="B248" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C248" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15437,10 +15439,10 @@
         <v>286</v>
       </c>
       <c r="B249" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C249" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15448,10 +15450,10 @@
         <v>286</v>
       </c>
       <c r="B250" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C250" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15459,10 +15461,10 @@
         <v>286</v>
       </c>
       <c r="B251" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C251" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15470,10 +15472,10 @@
         <v>286</v>
       </c>
       <c r="B252" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C252" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15481,10 +15483,10 @@
         <v>286</v>
       </c>
       <c r="B253" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C253" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15492,10 +15494,10 @@
         <v>286</v>
       </c>
       <c r="B254" s="35">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C254" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15503,10 +15505,10 @@
         <v>286</v>
       </c>
       <c r="B255" s="35">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C255" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15514,10 +15516,10 @@
         <v>286</v>
       </c>
       <c r="B256" s="35">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C256" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15525,10 +15527,10 @@
         <v>286</v>
       </c>
       <c r="B257" s="35">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C257" s="32">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15536,10 +15538,10 @@
         <v>286</v>
       </c>
       <c r="B258" s="35">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C258" s="32">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15547,10 +15549,10 @@
         <v>286</v>
       </c>
       <c r="B259" s="35">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C259" s="32">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15558,10 +15560,10 @@
         <v>286</v>
       </c>
       <c r="B260" s="35">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C260" s="32">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15569,10 +15571,10 @@
         <v>286</v>
       </c>
       <c r="B261" s="35">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C261" s="32">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15580,10 +15582,10 @@
         <v>286</v>
       </c>
       <c r="B262" s="35">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C262" s="32">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15591,10 +15593,10 @@
         <v>286</v>
       </c>
       <c r="B263" s="35">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C263" s="32">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15602,10 +15604,10 @@
         <v>286</v>
       </c>
       <c r="B264" s="35">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C264" s="32">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15613,10 +15615,10 @@
         <v>286</v>
       </c>
       <c r="B265" s="35">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C265" s="32">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,10 +15626,10 @@
         <v>286</v>
       </c>
       <c r="B266" s="35">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C266" s="32">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,10 +15637,10 @@
         <v>286</v>
       </c>
       <c r="B267" s="35">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C267" s="32">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15646,10 +15648,10 @@
         <v>286</v>
       </c>
       <c r="B268" s="35">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C268" s="32">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15657,10 +15659,10 @@
         <v>286</v>
       </c>
       <c r="B269" s="35">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C269" s="32">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15668,10 +15670,10 @@
         <v>286</v>
       </c>
       <c r="B270" s="35">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C270" s="32">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15679,10 +15681,10 @@
         <v>286</v>
       </c>
       <c r="B271" s="35">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C271" s="32">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15690,10 +15692,10 @@
         <v>286</v>
       </c>
       <c r="B272" s="35">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C272" s="32">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15701,10 +15703,10 @@
         <v>286</v>
       </c>
       <c r="B273" s="35">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C273" s="32">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15712,10 +15714,10 @@
         <v>286</v>
       </c>
       <c r="B274" s="35">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C274" s="32">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15723,10 +15725,10 @@
         <v>286</v>
       </c>
       <c r="B275" s="35">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C275" s="32">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15734,10 +15736,10 @@
         <v>286</v>
       </c>
       <c r="B276" s="35">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C276" s="32">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15745,10 +15747,10 @@
         <v>286</v>
       </c>
       <c r="B277" s="35">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C277" s="32">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15756,10 +15758,10 @@
         <v>286</v>
       </c>
       <c r="B278" s="35">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C278" s="32">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15767,10 +15769,10 @@
         <v>286</v>
       </c>
       <c r="B279" s="35">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C279" s="32">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15778,10 +15780,10 @@
         <v>286</v>
       </c>
       <c r="B280" s="35">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C280" s="32">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15789,10 +15791,10 @@
         <v>286</v>
       </c>
       <c r="B281" s="35">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C281" s="32">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15800,10 +15802,10 @@
         <v>286</v>
       </c>
       <c r="B282" s="35">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C282" s="32">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15811,10 +15813,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="35">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C283" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15822,10 +15824,10 @@
         <v>286</v>
       </c>
       <c r="B284" s="35">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C284" s="32">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15833,10 +15835,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="35">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C285" s="32">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15844,10 +15846,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="36">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C286" s="33">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -15855,10 +15857,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="36">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C287" s="33">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15866,10 +15868,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="36">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C288" s="33">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15877,10 +15879,10 @@
         <v>286</v>
       </c>
       <c r="B289" s="36">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C289" s="33">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -15888,10 +15890,10 @@
         <v>286</v>
       </c>
       <c r="B290" s="36">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C290" s="33">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15899,10 +15901,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="36">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C291" s="33">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15910,10 +15912,10 @@
         <v>286</v>
       </c>
       <c r="B292" s="36">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C292" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15921,10 +15923,10 @@
         <v>286</v>
       </c>
       <c r="B293" s="36">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C293" s="33">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15932,10 +15934,10 @@
         <v>286</v>
       </c>
       <c r="B294" s="36">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C294" s="33">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15943,10 +15945,65 @@
         <v>286</v>
       </c>
       <c r="B295" s="36">
+        <v>44233</v>
+      </c>
+      <c r="C295" s="33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B296" s="36">
+        <v>44234</v>
+      </c>
+      <c r="C296" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B297" s="36">
+        <v>44235</v>
+      </c>
+      <c r="C297" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B298" s="36">
+        <v>44236</v>
+      </c>
+      <c r="C298" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B299" s="36">
         <v>44237</v>
       </c>
-      <c r="C295" s="33">
-        <v>36</v>
+      <c r="C299" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B300" s="36">
+        <v>44238</v>
+      </c>
+      <c r="C300" s="33">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
